--- a/DadosICSAP_Capitais.xlsx
+++ b/DadosICSAP_Capitais.xlsx
@@ -647,19 +647,19 @@
         <v>210</v>
       </c>
       <c r="L2" t="n">
-        <v>0.767165324127349</v>
+        <v>7.67165324127349</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00730633642026047</v>
+        <v>0.0730633642026047</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00365316821013024</v>
+        <v>0.0365316821013024</v>
       </c>
       <c r="O2" t="n">
-        <v>0.562587904360056</v>
+        <v>5.62587904360056</v>
       </c>
       <c r="P2" t="n">
-        <v>0.193617915136902</v>
+        <v>1.93617915136902</v>
       </c>
     </row>
     <row r="3">
@@ -697,19 +697,19 @@
         <v>219</v>
       </c>
       <c r="L3" t="n">
-        <v>0.774133341816986</v>
+        <v>7.74133341816986</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0035348554420867</v>
+        <v>0.035348554420867</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0141394217683468</v>
+        <v>0.141394217683468</v>
       </c>
       <c r="O3" t="n">
-        <v>0.696366522091079</v>
+        <v>6.96366522091079</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0600925425154738</v>
+        <v>0.600925425154738</v>
       </c>
     </row>
     <row r="4">
@@ -747,19 +747,19 @@
         <v>153</v>
       </c>
       <c r="L4" t="n">
-        <v>0.523979780544939</v>
+        <v>5.23979780544939</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00684940889601227</v>
+        <v>0.0684940889601227</v>
       </c>
       <c r="N4" t="n">
-        <v>0.023972931136043</v>
+        <v>0.23972931136043</v>
       </c>
       <c r="O4" t="n">
-        <v>0.417813942656749</v>
+        <v>4.17813942656749</v>
       </c>
       <c r="P4" t="n">
-        <v>0.075343497856135</v>
+        <v>0.75343497856135</v>
       </c>
     </row>
     <row r="5">
@@ -797,19 +797,19 @@
         <v>248</v>
       </c>
       <c r="L5" t="n">
-        <v>0.823827208886704</v>
+        <v>8.23827208886704</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0597939103224221</v>
+        <v>0.597939103224221</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0431844907884159</v>
+        <v>0.431844907884159</v>
       </c>
       <c r="O5" t="n">
-        <v>0.544788960715401</v>
+        <v>5.44788960715401</v>
       </c>
       <c r="P5" t="n">
-        <v>0.176059847060465</v>
+        <v>1.76059847060465</v>
       </c>
     </row>
     <row r="6">
@@ -847,19 +847,19 @@
         <v>167</v>
       </c>
       <c r="L6" t="n">
-        <v>0.538588060760473</v>
+        <v>5.38588060760473</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0258006256651724</v>
+        <v>0.258006256651724</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0774018769955171</v>
+        <v>0.774018769955171</v>
       </c>
       <c r="O6" t="n">
-        <v>0.367658915728706</v>
+        <v>3.67658915728706</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0677266423710775</v>
+        <v>0.677266423710775</v>
       </c>
     </row>
     <row r="7">
@@ -897,19 +897,19 @@
         <v>135</v>
       </c>
       <c r="L7" t="n">
-        <v>0.423064869946725</v>
+        <v>4.23064869946725</v>
       </c>
       <c r="M7" t="n">
-        <v>0.028204324663115</v>
+        <v>0.28204324663115</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0376057662174867</v>
+        <v>0.376057662174867</v>
       </c>
       <c r="O7" t="n">
-        <v>0.313381385145722</v>
+        <v>3.13381385145722</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0438733939204011</v>
+        <v>0.438733939204011</v>
       </c>
     </row>
     <row r="8">
@@ -947,19 +947,19 @@
         <v>166</v>
       </c>
       <c r="L8" t="n">
-        <v>0.504999802259114</v>
+        <v>5.04999802259114</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0152108374174432</v>
+        <v>0.152108374174432</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0182530049009318</v>
+        <v>0.182530049009318</v>
       </c>
       <c r="O8" t="n">
-        <v>0.416776945237943</v>
+        <v>4.16776945237943</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0547590147027954</v>
+        <v>0.547590147027954</v>
       </c>
     </row>
     <row r="9">
@@ -997,19 +997,19 @@
         <v>100</v>
       </c>
       <c r="L9" t="n">
-        <v>0.295655053336172</v>
+        <v>2.95655053336172</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00591310106672343</v>
+        <v>0.0591310106672343</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0177393032001703</v>
+        <v>0.177393032001703</v>
       </c>
       <c r="O9" t="n">
-        <v>0.230610941602214</v>
+        <v>2.30610941602214</v>
       </c>
       <c r="P9" t="n">
-        <v>0.041391707467064</v>
+        <v>0.41391707467064</v>
       </c>
     </row>
     <row r="10">
@@ -1047,19 +1047,19 @@
         <v>121</v>
       </c>
       <c r="L10" t="n">
-        <v>0.347993143672277</v>
+        <v>3.47993143672277</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00287597639398576</v>
+        <v>0.0287597639398576</v>
       </c>
       <c r="N10" t="n">
-        <v>0.00862792918195728</v>
+        <v>0.0862792918195728</v>
       </c>
       <c r="O10" t="n">
-        <v>0.313481426944448</v>
+        <v>3.13481426944448</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0230078111518861</v>
+        <v>0.230078111518861</v>
       </c>
     </row>
     <row r="11">
@@ -1097,19 +1097,19 @@
         <v>172</v>
       </c>
       <c r="L11" t="n">
-        <v>0.481846705513223</v>
+        <v>4.81846705513223</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0168086060062752</v>
+        <v>0.168086060062752</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0308157776781712</v>
+        <v>0.308157776781712</v>
       </c>
       <c r="O11" t="n">
-        <v>0.395002241147467</v>
+        <v>3.95002241147467</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0392200806813088</v>
+        <v>0.392200806813088</v>
       </c>
     </row>
     <row r="12">
@@ -1147,19 +1147,19 @@
         <v>214</v>
       </c>
       <c r="L12" t="n">
-        <v>1.04765867867721</v>
+        <v>10.4765867867721</v>
       </c>
       <c r="M12" t="n">
-        <v>0.00489560130222995</v>
+        <v>0.0489560130222995</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0195824052089198</v>
+        <v>0.195824052089198</v>
       </c>
       <c r="O12" t="n">
-        <v>0.587472156267594</v>
+        <v>5.87472156267594</v>
       </c>
       <c r="P12" t="n">
-        <v>0.435708515898465</v>
+        <v>4.35708515898465</v>
       </c>
     </row>
     <row r="13">
@@ -1197,19 +1197,19 @@
         <v>263</v>
       </c>
       <c r="L13" t="n">
-        <v>1.25487277116942</v>
+        <v>12.5487277116942</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0190855174322345</v>
+        <v>0.190855174322345</v>
       </c>
       <c r="O13" t="n">
-        <v>0.877933801882786</v>
+        <v>8.77933801882786</v>
       </c>
       <c r="P13" t="n">
-        <v>0.357853451854397</v>
+        <v>3.57853451854397</v>
       </c>
     </row>
     <row r="14">
@@ -1247,19 +1247,19 @@
         <v>228</v>
       </c>
       <c r="L14" t="n">
-        <v>1.06047991367321</v>
+        <v>10.6047991367321</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0279073661492951</v>
+        <v>0.279073661492951</v>
       </c>
       <c r="O14" t="n">
-        <v>0.762801341414066</v>
+        <v>7.62801341414066</v>
       </c>
       <c r="P14" t="n">
-        <v>0.269771206109853</v>
+        <v>2.69771206109853</v>
       </c>
     </row>
     <row r="15">
@@ -1297,19 +1297,19 @@
         <v>234</v>
       </c>
       <c r="L15" t="n">
-        <v>1.0612629936687</v>
+        <v>10.612629936687</v>
       </c>
       <c r="M15" t="n">
-        <v>0.00453531193875515</v>
+        <v>0.0453531193875515</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0544237432650618</v>
+        <v>0.544237432650618</v>
       </c>
       <c r="O15" t="n">
-        <v>0.716579286323313</v>
+        <v>7.16579286323313</v>
       </c>
       <c r="P15" t="n">
-        <v>0.285724652141574</v>
+        <v>2.85724652141574</v>
       </c>
     </row>
     <row r="16">
@@ -1347,19 +1347,19 @@
         <v>183</v>
       </c>
       <c r="L16" t="n">
-        <v>0.809097259680429</v>
+        <v>8.09097259680429</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0176851860039438</v>
+        <v>0.176851860039438</v>
       </c>
       <c r="O16" t="n">
-        <v>0.592453731132117</v>
+        <v>5.92453731132117</v>
       </c>
       <c r="P16" t="n">
-        <v>0.198958342544368</v>
+        <v>1.98958342544368</v>
       </c>
     </row>
     <row r="17">
@@ -1397,19 +1397,19 @@
         <v>189</v>
       </c>
       <c r="L17" t="n">
-        <v>0.814409445425949</v>
+        <v>8.14409445425949</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.00861808936958676</v>
+        <v>0.0861808936958676</v>
       </c>
       <c r="O17" t="n">
-        <v>0.577411987762313</v>
+        <v>5.77411987762313</v>
       </c>
       <c r="P17" t="n">
-        <v>0.228379368294049</v>
+        <v>2.28379368294049</v>
       </c>
     </row>
     <row r="18">
@@ -1447,19 +1447,19 @@
         <v>173</v>
       </c>
       <c r="L18" t="n">
-        <v>0.726542748431424</v>
+        <v>7.26542748431424</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.00839933813215519</v>
+        <v>0.0839933813215519</v>
       </c>
       <c r="O18" t="n">
-        <v>0.562755654854397</v>
+        <v>5.62755654854397</v>
       </c>
       <c r="P18" t="n">
-        <v>0.155387755444871</v>
+        <v>1.55387755444871</v>
       </c>
     </row>
     <row r="19">
@@ -1497,19 +1497,19 @@
         <v>145</v>
       </c>
       <c r="L19" t="n">
-        <v>0.593483955468238</v>
+        <v>5.93483955468238</v>
       </c>
       <c r="M19" t="n">
-        <v>0.00409299279633268</v>
+        <v>0.0409299279633268</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0.454322200392927</v>
+        <v>4.54322200392927</v>
       </c>
       <c r="P19" t="n">
-        <v>0.135068762278978</v>
+        <v>1.35068762278978</v>
       </c>
     </row>
     <row r="20">
@@ -1547,19 +1547,19 @@
         <v>201</v>
       </c>
       <c r="L20" t="n">
-        <v>0.801771076407587</v>
+        <v>8.01771076407587</v>
       </c>
       <c r="M20" t="n">
-        <v>0.00398891082789844</v>
+        <v>0.0398891082789844</v>
       </c>
       <c r="N20" t="n">
-        <v>0.035900197451086</v>
+        <v>0.35900197451086</v>
       </c>
       <c r="O20" t="n">
-        <v>0.574403159217376</v>
+        <v>5.74403159217376</v>
       </c>
       <c r="P20" t="n">
-        <v>0.187478808911227</v>
+        <v>1.87478808911227</v>
       </c>
     </row>
     <row r="21">
@@ -1597,19 +1597,19 @@
         <v>205</v>
       </c>
       <c r="L21" t="n">
-        <v>0.79719387755102</v>
+        <v>7.9719387755102</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0116662518666003</v>
+        <v>0.116662518666003</v>
       </c>
       <c r="O21" t="n">
-        <v>0.614422598307616</v>
+        <v>6.14422598307616</v>
       </c>
       <c r="P21" t="n">
-        <v>0.171105027376804</v>
+        <v>1.71105027376804</v>
       </c>
     </row>
     <row r="22">
@@ -1647,19 +1647,19 @@
         <v>1155</v>
       </c>
       <c r="L22" t="n">
-        <v>1.03243545714097</v>
+        <v>10.3243545714097</v>
       </c>
       <c r="M22" t="n">
-        <v>0.00446941756338081</v>
+        <v>0.0446941756338081</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0581024283239505</v>
+        <v>0.581024283239505</v>
       </c>
       <c r="O22" t="n">
-        <v>0.691865838811349</v>
+        <v>6.91865838811349</v>
       </c>
       <c r="P22" t="n">
-        <v>0.277997772442286</v>
+        <v>2.77997772442286</v>
       </c>
     </row>
     <row r="23">
@@ -1697,19 +1697,19 @@
         <v>1312</v>
       </c>
       <c r="L23" t="n">
-        <v>1.1416289966804</v>
+        <v>11.416289966804</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00435072026173933</v>
+        <v>0.0435072026173933</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0670010920307857</v>
+        <v>0.670010920307857</v>
       </c>
       <c r="O23" t="n">
-        <v>0.791831087636558</v>
+        <v>7.91831087636558</v>
       </c>
       <c r="P23" t="n">
-        <v>0.278446096751317</v>
+        <v>2.78446096751317</v>
       </c>
     </row>
     <row r="24">
@@ -1747,19 +1747,19 @@
         <v>1697</v>
       </c>
       <c r="L24" t="n">
-        <v>1.43822700595377</v>
+        <v>14.3822700595377</v>
       </c>
       <c r="M24" t="n">
-        <v>0.000847511494374642</v>
+        <v>0.00847511494374643</v>
       </c>
       <c r="N24" t="n">
-        <v>0.04746064368498</v>
+        <v>0.4746064368498</v>
       </c>
       <c r="O24" t="n">
-        <v>1.05515181049643</v>
+        <v>10.5515181049643</v>
       </c>
       <c r="P24" t="n">
-        <v>0.334767040277984</v>
+        <v>3.34767040277984</v>
       </c>
     </row>
     <row r="25">
@@ -1797,19 +1797,19 @@
         <v>1447</v>
       </c>
       <c r="L25" t="n">
-        <v>1.19485263759385</v>
+        <v>11.9485263759385</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0024772342175408</v>
+        <v>0.024772342175408</v>
       </c>
       <c r="N25" t="n">
-        <v>0.037158513263112</v>
+        <v>0.37158513263112</v>
       </c>
       <c r="O25" t="n">
-        <v>0.952909429014028</v>
+        <v>9.52909429014028</v>
       </c>
       <c r="P25" t="n">
-        <v>0.202307461099165</v>
+        <v>2.02307461099165</v>
       </c>
     </row>
     <row r="26">
@@ -1847,19 +1847,19 @@
         <v>1096</v>
       </c>
       <c r="L26" t="n">
-        <v>0.881781004538437</v>
+        <v>8.81781004538437</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0281590649259537</v>
+        <v>0.281590649259537</v>
       </c>
       <c r="O26" t="n">
-        <v>0.658922119267317</v>
+        <v>6.58922119267317</v>
       </c>
       <c r="P26" t="n">
-        <v>0.194699820345166</v>
+        <v>1.94699820345166</v>
       </c>
     </row>
     <row r="27">
@@ -1897,19 +1897,19 @@
         <v>1477</v>
       </c>
       <c r="L27" t="n">
-        <v>1.15781840986145</v>
+        <v>11.5781840986145</v>
       </c>
       <c r="M27" t="n">
-        <v>0.00156779744057068</v>
+        <v>0.0156779744057068</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0235169616085602</v>
+        <v>0.235169616085602</v>
       </c>
       <c r="O27" t="n">
-        <v>0.827797048621318</v>
+        <v>8.27797048621318</v>
       </c>
       <c r="P27" t="n">
-        <v>0.304936602190997</v>
+        <v>3.04936602190997</v>
       </c>
     </row>
     <row r="28">
@@ -1947,19 +1947,19 @@
         <v>1684</v>
       </c>
       <c r="L28" t="n">
-        <v>1.28561100495235</v>
+        <v>12.8561100495235</v>
       </c>
       <c r="M28" t="n">
-        <v>0.00229028088768234</v>
+        <v>0.0229028088768234</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0358810672403566</v>
+        <v>0.358810672403566</v>
       </c>
       <c r="O28" t="n">
-        <v>0.958864264976338</v>
+        <v>9.58864264976338</v>
       </c>
       <c r="P28" t="n">
-        <v>0.288575391847974</v>
+        <v>2.88575391847974</v>
       </c>
     </row>
     <row r="29">
@@ -1997,19 +1997,19 @@
         <v>1798</v>
       </c>
       <c r="L29" t="n">
-        <v>1.3369659943666</v>
+        <v>13.369659943666</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0014871701828327</v>
+        <v>0.014871701828327</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0319741589309031</v>
+        <v>0.319741589309031</v>
       </c>
       <c r="O29" t="n">
-        <v>1.04622422362281</v>
+        <v>10.4622422362281</v>
       </c>
       <c r="P29" t="n">
-        <v>0.257280441630057</v>
+        <v>2.57280441630057</v>
       </c>
     </row>
     <row r="30">
@@ -2047,19 +2047,19 @@
         <v>2072</v>
       </c>
       <c r="L30" t="n">
-        <v>1.50128500432199</v>
+        <v>15.0128500432199</v>
       </c>
       <c r="M30" t="n">
-        <v>0.000724558399769301</v>
+        <v>0.00724558399769301</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0326051279896185</v>
+        <v>0.326051279896185</v>
       </c>
       <c r="O30" t="n">
-        <v>1.17740739962511</v>
+        <v>11.7740739962511</v>
       </c>
       <c r="P30" t="n">
-        <v>0.29054791830749</v>
+        <v>2.9054791830749</v>
       </c>
     </row>
     <row r="31">
@@ -2097,19 +2097,19 @@
         <v>1967</v>
       </c>
       <c r="L31" t="n">
-        <v>1.39019639439455</v>
+        <v>13.9019639439455</v>
       </c>
       <c r="M31" t="n">
-        <v>0.00141351946557656</v>
+        <v>0.0141351946557656</v>
       </c>
       <c r="N31" t="n">
-        <v>0.022616311449225</v>
+        <v>0.22616311449225</v>
       </c>
       <c r="O31" t="n">
-        <v>1.09194378715789</v>
+        <v>10.9194378715789</v>
       </c>
       <c r="P31" t="n">
-        <v>0.274222776321853</v>
+        <v>2.74222776321853</v>
       </c>
     </row>
     <row r="32">
@@ -2147,19 +2147,19 @@
         <v>368</v>
       </c>
       <c r="L32" t="n">
-        <v>2.16591624731468</v>
+        <v>21.6591624731468</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0.105941555575174</v>
+        <v>1.05941555575174</v>
       </c>
       <c r="O32" t="n">
-        <v>1.34781201259527</v>
+        <v>13.4781201259527</v>
       </c>
       <c r="P32" t="n">
-        <v>0.712162679144228</v>
+        <v>7.12162679144228</v>
       </c>
     </row>
     <row r="33">
@@ -2197,19 +2197,19 @@
         <v>303</v>
       </c>
       <c r="L33" t="n">
-        <v>1.72413793103448</v>
+        <v>17.2413793103448</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0.113804483896666</v>
+        <v>1.13804483896666</v>
       </c>
       <c r="O33" t="n">
-        <v>1.09252304540799</v>
+        <v>10.9252304540799</v>
       </c>
       <c r="P33" t="n">
-        <v>0.517810401729828</v>
+        <v>5.17810401729828</v>
       </c>
     </row>
     <row r="34">
@@ -2247,19 +2247,19 @@
         <v>344</v>
       </c>
       <c r="L34" t="n">
-        <v>1.8940019600718</v>
+        <v>18.940019600718</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0.115622212678801</v>
+        <v>1.15622212678801</v>
       </c>
       <c r="O34" t="n">
-        <v>1.26083270016407</v>
+        <v>12.6083270016407</v>
       </c>
       <c r="P34" t="n">
-        <v>0.517547047228921</v>
+        <v>5.17547047228921</v>
       </c>
     </row>
     <row r="35">
@@ -2297,19 +2297,19 @@
         <v>382</v>
       </c>
       <c r="L35" t="n">
-        <v>2.03638844909295</v>
+        <v>20.3638844909295</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0852937570300714</v>
+        <v>0.852937570300714</v>
       </c>
       <c r="O35" t="n">
-        <v>1.49797160784063</v>
+        <v>14.9797160784063</v>
       </c>
       <c r="P35" t="n">
-        <v>0.453123084222254</v>
+        <v>4.53123084222254</v>
       </c>
     </row>
     <row r="36">
@@ -2347,19 +2347,19 @@
         <v>392</v>
       </c>
       <c r="L36" t="n">
-        <v>2.02397794277099</v>
+        <v>20.2397794277099</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0361424632637677</v>
+        <v>0.361424632637677</v>
       </c>
       <c r="O36" t="n">
-        <v>1.68320614628404</v>
+        <v>16.8320614628404</v>
       </c>
       <c r="P36" t="n">
-        <v>0.304629333223185</v>
+        <v>3.04629333223185</v>
       </c>
     </row>
     <row r="37">
@@ -2397,19 +2397,19 @@
         <v>431</v>
       </c>
       <c r="L37" t="n">
-        <v>2.1521376569163</v>
+        <v>21.521376569163</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0549269471602768</v>
+        <v>0.549269471602768</v>
       </c>
       <c r="O37" t="n">
-        <v>1.80260253862363</v>
+        <v>18.0260253862363</v>
       </c>
       <c r="P37" t="n">
-        <v>0.294608171132394</v>
+        <v>2.94608171132394</v>
       </c>
     </row>
     <row r="38">
@@ -2447,19 +2447,19 @@
         <v>425</v>
       </c>
       <c r="L38" t="n">
-        <v>2.0429451096701</v>
+        <v>20.429451096701</v>
       </c>
       <c r="M38" t="n">
-        <v>0.004806929669812</v>
+        <v>0.04806929669812</v>
       </c>
       <c r="N38" t="n">
-        <v>0.043262367028308</v>
+        <v>0.43262367028308</v>
       </c>
       <c r="O38" t="n">
-        <v>1.72568775146251</v>
+        <v>17.2568775146251</v>
       </c>
       <c r="P38" t="n">
-        <v>0.269188061509472</v>
+        <v>2.69188061509472</v>
       </c>
     </row>
     <row r="39">
@@ -2497,19 +2497,19 @@
         <v>421</v>
       </c>
       <c r="L39" t="n">
-        <v>1.89749899716502</v>
+        <v>18.9749899716502</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0.0315498645609386</v>
+        <v>0.315498645609386</v>
       </c>
       <c r="O39" t="n">
-        <v>1.41072965822482</v>
+        <v>14.1072965822482</v>
       </c>
       <c r="P39" t="n">
-        <v>0.455219474379256</v>
+        <v>4.55219474379256</v>
       </c>
     </row>
     <row r="40">
@@ -2547,19 +2547,19 @@
         <v>464</v>
       </c>
       <c r="L40" t="n">
-        <v>1.91555854632225</v>
+        <v>19.1555854632225</v>
       </c>
       <c r="M40" t="n">
-        <v>0.00412835893603933</v>
+        <v>0.0412835893603933</v>
       </c>
       <c r="N40" t="n">
-        <v>0.06192538404059</v>
+        <v>0.6192538404059</v>
       </c>
       <c r="O40" t="n">
-        <v>1.45318234548585</v>
+        <v>14.5318234548585</v>
       </c>
       <c r="P40" t="n">
-        <v>0.396322457859776</v>
+        <v>3.96322457859776</v>
       </c>
     </row>
     <row r="41">
@@ -2597,19 +2597,19 @@
         <v>546</v>
       </c>
       <c r="L41" t="n">
-        <v>2.0830074660176</v>
+        <v>20.830074660176</v>
       </c>
       <c r="M41" t="n">
-        <v>0.00381503198904323</v>
+        <v>0.0381503198904323</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0534104478466052</v>
+        <v>0.534104478466052</v>
       </c>
       <c r="O41" t="n">
-        <v>1.78543497087223</v>
+        <v>17.8543497087223</v>
       </c>
       <c r="P41" t="n">
-        <v>0.240347015309723</v>
+        <v>2.40347015309723</v>
       </c>
     </row>
     <row r="42">
@@ -2647,19 +2647,19 @@
         <v>807</v>
       </c>
       <c r="L42" t="n">
-        <v>0.859562230388241</v>
+        <v>8.59562230388241</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0010651328753262</v>
+        <v>0.010651328753262</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0489961122650051</v>
+        <v>0.489961122650051</v>
       </c>
       <c r="O42" t="n">
-        <v>0.537892102039729</v>
+        <v>5.37892102039729</v>
       </c>
       <c r="P42" t="n">
-        <v>0.27160888320818</v>
+        <v>2.7160888320818</v>
       </c>
     </row>
     <row r="43">
@@ -2697,19 +2697,19 @@
         <v>864</v>
       </c>
       <c r="L43" t="n">
-        <v>0.908482004380482</v>
+        <v>9.08482004380481</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0010514838013663</v>
+        <v>0.010514838013663</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0515227062669486</v>
+        <v>0.515227062669486</v>
       </c>
       <c r="O43" t="n">
-        <v>0.578316090751464</v>
+        <v>5.78316090751464</v>
       </c>
       <c r="P43" t="n">
-        <v>0.277591723560703</v>
+        <v>2.77591723560703</v>
       </c>
     </row>
     <row r="44">
@@ -2747,19 +2747,19 @@
         <v>982</v>
       </c>
       <c r="L44" t="n">
-        <v>1.01945582652225</v>
+        <v>10.1945582652225</v>
       </c>
       <c r="M44" t="n">
-        <v>0.00207628477906773</v>
+        <v>0.0207628477906773</v>
       </c>
       <c r="N44" t="n">
-        <v>0.038411268412753</v>
+        <v>0.38411268412753</v>
       </c>
       <c r="O44" t="n">
-        <v>0.608351440266844</v>
+        <v>6.08351440266844</v>
       </c>
       <c r="P44" t="n">
-        <v>0.370616833063589</v>
+        <v>3.70616833063589</v>
       </c>
     </row>
     <row r="45">
@@ -2797,19 +2797,19 @@
         <v>932</v>
       </c>
       <c r="L45" t="n">
-        <v>0.955290948618262</v>
+        <v>9.55290948618262</v>
       </c>
       <c r="M45" t="n">
-        <v>0.00102499028821702</v>
+        <v>0.0102499028821702</v>
       </c>
       <c r="N45" t="n">
-        <v>0.052274504699068</v>
+        <v>0.52274504699068</v>
       </c>
       <c r="O45" t="n">
-        <v>0.513520134396727</v>
+        <v>5.13520134396727</v>
       </c>
       <c r="P45" t="n">
-        <v>0.38847131923425</v>
+        <v>3.8847131923425</v>
       </c>
     </row>
     <row r="46">
@@ -2847,19 +2847,19 @@
         <v>1018</v>
       </c>
       <c r="L46" t="n">
-        <v>1.03021630494403</v>
+        <v>10.3021630494403</v>
       </c>
       <c r="M46" t="n">
-        <v>0.00607200179731253</v>
+        <v>0.0607200179731253</v>
       </c>
       <c r="N46" t="n">
-        <v>0.0556600164753649</v>
+        <v>0.556600164753649</v>
       </c>
       <c r="O46" t="n">
-        <v>0.593032175537524</v>
+        <v>5.93032175537524</v>
       </c>
       <c r="P46" t="n">
-        <v>0.375452111133825</v>
+        <v>3.75452111133825</v>
       </c>
     </row>
     <row r="47">
@@ -2897,19 +2897,19 @@
         <v>814</v>
       </c>
       <c r="L47" t="n">
-        <v>0.813214434855929</v>
+        <v>8.13214434855929</v>
       </c>
       <c r="M47" t="n">
-        <v>0.00199806986451088</v>
+        <v>0.0199806986451088</v>
       </c>
       <c r="N47" t="n">
-        <v>0.0649372705966037</v>
+        <v>0.649372705966037</v>
       </c>
       <c r="O47" t="n">
-        <v>0.558460527130792</v>
+        <v>5.58460527130792</v>
       </c>
       <c r="P47" t="n">
-        <v>0.187818567264023</v>
+        <v>1.87818567264023</v>
       </c>
     </row>
     <row r="48">
@@ -2947,19 +2947,19 @@
         <v>784</v>
       </c>
       <c r="L48" t="n">
-        <v>0.773835668494327</v>
+        <v>7.73835668494327</v>
       </c>
       <c r="M48" t="n">
-        <v>0.00394814116578738</v>
+        <v>0.0394814116578738</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0473776939894486</v>
+        <v>0.473776939894486</v>
       </c>
       <c r="O48" t="n">
-        <v>0.548791622044446</v>
+        <v>5.48791622044446</v>
       </c>
       <c r="P48" t="n">
-        <v>0.173718211294645</v>
+        <v>1.73718211294645</v>
       </c>
     </row>
     <row r="49">
@@ -2997,19 +2997,19 @@
         <v>729</v>
       </c>
       <c r="L49" t="n">
-        <v>0.710806897459524</v>
+        <v>7.10806897459524</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0.0321764439179208</v>
+        <v>0.321764439179208</v>
       </c>
       <c r="O49" t="n">
-        <v>0.532373890278326</v>
+        <v>5.32373890278326</v>
       </c>
       <c r="P49" t="n">
-        <v>0.146256563263276</v>
+        <v>1.46256563263276</v>
       </c>
     </row>
     <row r="50">
@@ -3047,19 +3047,19 @@
         <v>709</v>
       </c>
       <c r="L50" t="n">
-        <v>0.683024575397628</v>
+        <v>6.83024575397628</v>
       </c>
       <c r="M50" t="n">
-        <v>0.00289008988179532</v>
+        <v>0.0289008988179532</v>
       </c>
       <c r="N50" t="n">
-        <v>0.021193992466499</v>
+        <v>0.21193992466499</v>
       </c>
       <c r="O50" t="n">
-        <v>0.479754920378024</v>
+        <v>4.79754920378024</v>
       </c>
       <c r="P50" t="n">
-        <v>0.17918557267131</v>
+        <v>1.7918557267131</v>
       </c>
     </row>
     <row r="51">
@@ -3097,19 +3097,19 @@
         <v>760</v>
       </c>
       <c r="L51" t="n">
-        <v>0.723601402263349</v>
+        <v>7.23601402263349</v>
       </c>
       <c r="M51" t="n">
-        <v>0.003808428432965</v>
+        <v>0.0380842843296499</v>
       </c>
       <c r="N51" t="n">
-        <v>0.03046742746372</v>
+        <v>0.3046742746372</v>
       </c>
       <c r="O51" t="n">
-        <v>0.569360050728267</v>
+        <v>5.69360050728267</v>
       </c>
       <c r="P51" t="n">
-        <v>0.119965495638397</v>
+        <v>1.19965495638397</v>
       </c>
     </row>
     <row r="52">
@@ -3147,19 +3147,19 @@
         <v>290</v>
       </c>
       <c r="L52" t="n">
-        <v>1.25274307535466</v>
+        <v>12.5274307535466</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>0.00863960741623901</v>
+        <v>0.0863960741623901</v>
       </c>
       <c r="O52" t="n">
-        <v>1.05835190848928</v>
+        <v>10.5835190848928</v>
       </c>
       <c r="P52" t="n">
-        <v>0.185751559449139</v>
+        <v>1.85751559449139</v>
       </c>
     </row>
     <row r="53">
@@ -3197,19 +3197,19 @@
         <v>334</v>
       </c>
       <c r="L53" t="n">
-        <v>1.39113919305597</v>
+        <v>13.9113919305597</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0.0291556118305143</v>
+        <v>0.291556118305143</v>
       </c>
       <c r="O53" t="n">
-        <v>1.10791324955954</v>
+        <v>11.0791324955954</v>
       </c>
       <c r="P53" t="n">
-        <v>0.25407033166591</v>
+        <v>2.5407033166591</v>
       </c>
     </row>
     <row r="54">
@@ -3247,19 +3247,19 @@
         <v>441</v>
       </c>
       <c r="L54" t="n">
-        <v>1.77277880062067</v>
+        <v>17.7277880062067</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>0.0241194394642269</v>
+        <v>0.241194394642268</v>
       </c>
       <c r="O54" t="n">
-        <v>1.2260715060982</v>
+        <v>12.260715060982</v>
       </c>
       <c r="P54" t="n">
-        <v>0.522587855058248</v>
+        <v>5.22587855058248</v>
       </c>
     </row>
     <row r="55">
@@ -3297,19 +3297,19 @@
         <v>322</v>
       </c>
       <c r="L55" t="n">
-        <v>1.25039803042894</v>
+        <v>12.5039803042894</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0.0194161184849214</v>
+        <v>0.194161184849214</v>
       </c>
       <c r="O55" t="n">
-        <v>0.873725331821465</v>
+        <v>8.73725331821465</v>
       </c>
       <c r="P55" t="n">
-        <v>0.357256580122555</v>
+        <v>3.57256580122555</v>
       </c>
     </row>
     <row r="56">
@@ -3347,19 +3347,19 @@
         <v>265</v>
       </c>
       <c r="L56" t="n">
-        <v>0.994614070974159</v>
+        <v>9.94614070974159</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>0.015013042580742</v>
+        <v>0.15013042580742</v>
       </c>
       <c r="O56" t="n">
-        <v>0.735639086456359</v>
+        <v>7.35639086456359</v>
       </c>
       <c r="P56" t="n">
-        <v>0.243961941937058</v>
+        <v>2.43961941937058</v>
       </c>
     </row>
     <row r="57">
@@ -3397,19 +3397,19 @@
         <v>209</v>
       </c>
       <c r="L57" t="n">
-        <v>0.758617936051049</v>
+        <v>7.58617936051049</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0.0217785053411784</v>
+        <v>0.217785053411784</v>
       </c>
       <c r="O57" t="n">
-        <v>0.562611387980443</v>
+        <v>5.62611387980443</v>
       </c>
       <c r="P57" t="n">
-        <v>0.174228042729427</v>
+        <v>1.74228042729427</v>
       </c>
     </row>
     <row r="58">
@@ -3447,19 +3447,19 @@
         <v>184</v>
       </c>
       <c r="L58" t="n">
-        <v>0.646174052599973</v>
+        <v>6.46174052599973</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>0.0140472620130429</v>
+        <v>0.140472620130429</v>
       </c>
       <c r="O58" t="n">
-        <v>0.523260509985847</v>
+        <v>5.23260509985847</v>
       </c>
       <c r="P58" t="n">
-        <v>0.108866280601082</v>
+        <v>1.08866280601082</v>
       </c>
     </row>
     <row r="59">
@@ -3497,19 +3497,19 @@
         <v>131</v>
       </c>
       <c r="L59" t="n">
-        <v>0.445440356896335</v>
+        <v>4.45440356896335</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>0.00340030806791095</v>
+        <v>0.0340030806791095</v>
       </c>
       <c r="O59" t="n">
-        <v>0.367233271334383</v>
+        <v>3.67233271334383</v>
       </c>
       <c r="P59" t="n">
-        <v>0.074806777494041</v>
+        <v>0.74806777494041</v>
       </c>
     </row>
     <row r="60">
@@ -3547,19 +3547,19 @@
         <v>179</v>
       </c>
       <c r="L60" t="n">
-        <v>0.589789718548392</v>
+        <v>5.89789718548392</v>
       </c>
       <c r="M60" t="n">
-        <v>0.00329491462876197</v>
+        <v>0.0329491462876197</v>
       </c>
       <c r="N60" t="n">
-        <v>0.00988474388628591</v>
+        <v>0.0988474388628591</v>
       </c>
       <c r="O60" t="n">
-        <v>0.474467706541724</v>
+        <v>4.74467706541724</v>
       </c>
       <c r="P60" t="n">
-        <v>0.102142353491621</v>
+        <v>1.02142353491621</v>
       </c>
     </row>
     <row r="61">
@@ -3597,19 +3597,19 @@
         <v>146</v>
       </c>
       <c r="L61" t="n">
-        <v>0.466602748481943</v>
+        <v>4.66602748481943</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>0.00319590923617769</v>
+        <v>0.0319590923617769</v>
       </c>
       <c r="O61" t="n">
-        <v>0.364333652924257</v>
+        <v>3.64333652924257</v>
       </c>
       <c r="P61" t="n">
-        <v>0.0990731863215085</v>
+        <v>0.990731863215085</v>
       </c>
     </row>
     <row r="62">
@@ -3647,19 +3647,19 @@
         <v>78</v>
       </c>
       <c r="L62" t="n">
-        <v>0.538253986874883</v>
+        <v>5.38253986874884</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>0.0276027685576863</v>
+        <v>0.276027685576863</v>
       </c>
       <c r="O62" t="n">
-        <v>0.476147757620089</v>
+        <v>4.76147757620089</v>
       </c>
       <c r="P62" t="n">
-        <v>0.0345034606971079</v>
+        <v>0.345034606971079</v>
       </c>
     </row>
     <row r="63">
@@ -3697,19 +3697,19 @@
         <v>84</v>
       </c>
       <c r="L63" t="n">
-        <v>0.559220818992204</v>
+        <v>5.59220818992204</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>0.0599165163205933</v>
+        <v>0.599165163205933</v>
       </c>
       <c r="O63" t="n">
-        <v>0.479332130564746</v>
+        <v>4.79332130564746</v>
       </c>
       <c r="P63" t="n">
-        <v>0.0199721721068644</v>
+        <v>0.199721721068644</v>
       </c>
     </row>
     <row r="64">
@@ -3747,19 +3747,19 @@
         <v>90</v>
       </c>
       <c r="L64" t="n">
-        <v>0.578796745876073</v>
+        <v>5.78796745876073</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0.0450175246792501</v>
+        <v>0.450175246792501</v>
       </c>
       <c r="O64" t="n">
-        <v>0.475899546609216</v>
+        <v>4.75899546609216</v>
       </c>
       <c r="P64" t="n">
-        <v>0.0578796745876073</v>
+        <v>0.578796745876073</v>
       </c>
     </row>
     <row r="65">
@@ -3797,19 +3797,19 @@
         <v>112</v>
       </c>
       <c r="L65" t="n">
-        <v>0.697093989431557</v>
+        <v>6.97093989431557</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>0.0684645882477422</v>
+        <v>0.684645882477422</v>
       </c>
       <c r="O65" t="n">
-        <v>0.56638886641314</v>
+        <v>5.6638886641314</v>
       </c>
       <c r="P65" t="n">
-        <v>0.0622405347706748</v>
+        <v>0.622405347706747</v>
       </c>
     </row>
     <row r="66">
@@ -3847,19 +3847,19 @@
         <v>145</v>
       </c>
       <c r="L66" t="n">
-        <v>0.874036299631699</v>
+        <v>8.74036299631699</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0.0783618751393937</v>
+        <v>0.783618751393937</v>
       </c>
       <c r="O66" t="n">
-        <v>0.747451732098832</v>
+        <v>7.47451732098832</v>
       </c>
       <c r="P66" t="n">
-        <v>0.0482226923934731</v>
+        <v>0.482226923934731</v>
       </c>
     </row>
     <row r="67">
@@ -3897,19 +3897,19 @@
         <v>78</v>
       </c>
       <c r="L67" t="n">
-        <v>0.455727264760013</v>
+        <v>4.55727264760013</v>
       </c>
       <c r="M67" t="n">
-        <v>0.00584265724051298</v>
+        <v>0.0584265724051298</v>
       </c>
       <c r="N67" t="n">
-        <v>0.011685314481026</v>
+        <v>0.11685314481026</v>
       </c>
       <c r="O67" t="n">
-        <v>0.426513978557448</v>
+        <v>4.26513978557448</v>
       </c>
       <c r="P67" t="n">
-        <v>0.011685314481026</v>
+        <v>0.11685314481026</v>
       </c>
     </row>
     <row r="68">
@@ -3947,19 +3947,19 @@
         <v>90</v>
       </c>
       <c r="L68" t="n">
-        <v>0.509747505069156</v>
+        <v>5.09747505069156</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0.0169915835023052</v>
+        <v>0.169915835023052</v>
       </c>
       <c r="O68" t="n">
-        <v>0.453108893394805</v>
+        <v>4.53108893394805</v>
       </c>
       <c r="P68" t="n">
-        <v>0.0396470281720454</v>
+        <v>0.396470281720454</v>
       </c>
     </row>
     <row r="69">
@@ -3997,19 +3997,19 @@
         <v>80</v>
       </c>
       <c r="L69" t="n">
-        <v>0.439601501239127</v>
+        <v>4.39601501239127</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>0.0164850562964673</v>
+        <v>0.164850562964673</v>
       </c>
       <c r="O69" t="n">
-        <v>0.379156294818747</v>
+        <v>3.79156294818747</v>
       </c>
       <c r="P69" t="n">
-        <v>0.0439601501239127</v>
+        <v>0.439601501239127</v>
       </c>
     </row>
     <row r="70">
@@ -4047,19 +4047,19 @@
         <v>83</v>
       </c>
       <c r="L70" t="n">
-        <v>0.442706805417025</v>
+        <v>4.42706805417024</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>0.0160014507982057</v>
+        <v>0.160014507982057</v>
       </c>
       <c r="O70" t="n">
-        <v>0.378701002224202</v>
+        <v>3.78701002224202</v>
       </c>
       <c r="P70" t="n">
-        <v>0.0480043523946171</v>
+        <v>0.480043523946171</v>
       </c>
     </row>
     <row r="71">
@@ -4097,7 +4097,7 @@
         <v>211</v>
       </c>
       <c r="L71" t="n">
-        <v>1.09389905022604</v>
+        <v>10.9389905022604</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>0.834681265812285</v>
+        <v>8.34681265812285</v>
       </c>
       <c r="P71" t="n">
-        <v>0.259217784413753</v>
+        <v>2.59217784413753</v>
       </c>
     </row>
     <row r="72">
@@ -4147,19 +4147,19 @@
         <v>673</v>
       </c>
       <c r="L72" t="n">
-        <v>0.994711622311101</v>
+        <v>9.94711622311101</v>
       </c>
       <c r="M72" t="n">
-        <v>0.0339946022483734</v>
+        <v>0.339946022483734</v>
       </c>
       <c r="N72" t="n">
-        <v>0.066511178312035</v>
+        <v>0.66511178312035</v>
       </c>
       <c r="O72" t="n">
-        <v>0.741969144725368</v>
+        <v>7.41969144725368</v>
       </c>
       <c r="P72" t="n">
-        <v>0.152236697025325</v>
+        <v>1.52236697025325</v>
       </c>
     </row>
     <row r="73">
@@ -4197,19 +4197,19 @@
         <v>796</v>
       </c>
       <c r="L73" t="n">
-        <v>1.16028558184824</v>
+        <v>11.6028558184824</v>
       </c>
       <c r="M73" t="n">
-        <v>0.0320681944731924</v>
+        <v>0.320681944731924</v>
       </c>
       <c r="N73" t="n">
-        <v>0.0349834848798463</v>
+        <v>0.349834848798463</v>
       </c>
       <c r="O73" t="n">
-        <v>0.956215253382466</v>
+        <v>9.56215253382466</v>
       </c>
       <c r="P73" t="n">
-        <v>0.137018649112731</v>
+        <v>1.37018649112731</v>
       </c>
     </row>
     <row r="74">
@@ -4247,19 +4247,19 @@
         <v>536</v>
       </c>
       <c r="L74" t="n">
-        <v>0.771134257927145</v>
+        <v>7.71134257927145</v>
       </c>
       <c r="M74" t="n">
-        <v>0.00575473326811302</v>
+        <v>0.0575473326811302</v>
       </c>
       <c r="N74" t="n">
-        <v>0.0517925994130172</v>
+        <v>0.517925994130172</v>
       </c>
       <c r="O74" t="n">
-        <v>0.602808309834839</v>
+        <v>6.02808309834839</v>
       </c>
       <c r="P74" t="n">
-        <v>0.110778615411176</v>
+        <v>1.10778615411176</v>
       </c>
     </row>
     <row r="75">
@@ -4297,19 +4297,19 @@
         <v>472</v>
       </c>
       <c r="L75" t="n">
-        <v>0.6706193425373</v>
+        <v>6.706193425373</v>
       </c>
       <c r="M75" t="n">
-        <v>0.00426241107544894</v>
+        <v>0.0426241107544894</v>
       </c>
       <c r="N75" t="n">
-        <v>0.045465718138122</v>
+        <v>0.45465718138122</v>
       </c>
       <c r="O75" t="n">
-        <v>0.561217458267444</v>
+        <v>5.61217458267444</v>
       </c>
       <c r="P75" t="n">
-        <v>0.0596737550562851</v>
+        <v>0.596737550562851</v>
       </c>
     </row>
     <row r="76">
@@ -4347,19 +4347,19 @@
         <v>640</v>
       </c>
       <c r="L76" t="n">
-        <v>0.897917952747068</v>
+        <v>8.97917952747068</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>0.033671923228015</v>
+        <v>0.33671923228015</v>
       </c>
       <c r="O76" t="n">
-        <v>0.725349346203491</v>
+        <v>7.25349346203491</v>
       </c>
       <c r="P76" t="n">
-        <v>0.138896683315562</v>
+        <v>1.38896683315562</v>
       </c>
     </row>
     <row r="77">
@@ -4397,19 +4397,19 @@
         <v>568</v>
       </c>
       <c r="L77" t="n">
-        <v>0.786665466355509</v>
+        <v>7.86665466355509</v>
       </c>
       <c r="M77" t="n">
-        <v>0.00276994882519545</v>
+        <v>0.0276994882519545</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0443191812031273</v>
+        <v>0.443191812031273</v>
       </c>
       <c r="O77" t="n">
-        <v>0.646783050683139</v>
+        <v>6.46783050683139</v>
       </c>
       <c r="P77" t="n">
-        <v>0.0927932856440477</v>
+        <v>0.927932856440477</v>
       </c>
     </row>
     <row r="78">
@@ -4447,19 +4447,19 @@
         <v>598</v>
       </c>
       <c r="L78" t="n">
-        <v>0.817686085115925</v>
+        <v>8.17686085115925</v>
       </c>
       <c r="M78" t="n">
-        <v>0.00410210410593274</v>
+        <v>0.0410210410593274</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0273473607062182</v>
+        <v>0.273473607062182</v>
       </c>
       <c r="O78" t="n">
-        <v>0.642662976596129</v>
+        <v>6.42662976596129</v>
       </c>
       <c r="P78" t="n">
-        <v>0.143573643707646</v>
+        <v>1.43573643707646</v>
       </c>
     </row>
     <row r="79">
@@ -4497,19 +4497,19 @@
         <v>450</v>
       </c>
       <c r="L79" t="n">
-        <v>0.607041683528936</v>
+        <v>6.07041683528936</v>
       </c>
       <c r="M79" t="n">
-        <v>0.00134898151895319</v>
+        <v>0.0134898151895319</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0242816673411574</v>
+        <v>0.242816673411574</v>
       </c>
       <c r="O79" t="n">
-        <v>0.488331309861055</v>
+        <v>4.88331309861055</v>
       </c>
       <c r="P79" t="n">
-        <v>0.0930797248077701</v>
+        <v>0.930797248077701</v>
       </c>
     </row>
     <row r="80">
@@ -4547,19 +4547,19 @@
         <v>497</v>
       </c>
       <c r="L80" t="n">
-        <v>0.661787812451731</v>
+        <v>6.61787812451731</v>
       </c>
       <c r="M80" t="n">
-        <v>0.00133156501499342</v>
+        <v>0.0133156501499342</v>
       </c>
       <c r="N80" t="n">
-        <v>0.0399469504498027</v>
+        <v>0.399469504498027</v>
       </c>
       <c r="O80" t="n">
-        <v>0.543278526117316</v>
+        <v>5.43278526117316</v>
       </c>
       <c r="P80" t="n">
-        <v>0.0772307708696185</v>
+        <v>0.772307708696185</v>
       </c>
     </row>
     <row r="81">
@@ -4597,19 +4597,19 @@
         <v>925</v>
       </c>
       <c r="L81" t="n">
-        <v>1.21632745375983</v>
+        <v>12.1632745375983</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>0.0131494859865928</v>
+        <v>0.131494859865928</v>
       </c>
       <c r="O81" t="n">
-        <v>1.15189497242553</v>
+        <v>11.5189497242553</v>
       </c>
       <c r="P81" t="n">
-        <v>0.0512829953477119</v>
+        <v>0.512829953477119</v>
       </c>
     </row>
     <row r="82">
@@ -4647,19 +4647,19 @@
         <v>1527</v>
       </c>
       <c r="L82" t="n">
-        <v>2.79484006998997</v>
+        <v>27.9484006998997</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0585690125996588</v>
+        <v>0.585690125996588</v>
       </c>
       <c r="N82" t="n">
-        <v>0.0256239430123507</v>
+        <v>0.256239430123507</v>
       </c>
       <c r="O82" t="n">
-        <v>1.84675417853299</v>
+        <v>18.4675417853299</v>
       </c>
       <c r="P82" t="n">
-        <v>0.863892935844968</v>
+        <v>8.63892935844968</v>
       </c>
     </row>
     <row r="83">
@@ -4697,19 +4697,19 @@
         <v>1155</v>
       </c>
       <c r="L83" t="n">
-        <v>2.09252777355045</v>
+        <v>20.9252777355045</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0525396583835178</v>
+        <v>0.525396583835178</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0307991100868897</v>
+        <v>0.307991100868897</v>
       </c>
       <c r="O83" t="n">
-        <v>1.24464638998196</v>
+        <v>12.4464638998196</v>
       </c>
       <c r="P83" t="n">
-        <v>0.764542615098086</v>
+        <v>7.64542615098086</v>
       </c>
     </row>
     <row r="84">
@@ -4747,19 +4747,19 @@
         <v>1073</v>
       </c>
       <c r="L84" t="n">
-        <v>1.92562735431723</v>
+        <v>19.2562735431723</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0466601222854128</v>
+        <v>0.466601222854128</v>
       </c>
       <c r="N84" t="n">
-        <v>0.0502493624612138</v>
+        <v>0.502493624612138</v>
       </c>
       <c r="O84" t="n">
-        <v>1.25982330170615</v>
+        <v>12.5982330170615</v>
       </c>
       <c r="P84" t="n">
-        <v>0.568894567864456</v>
+        <v>5.68894567864456</v>
       </c>
     </row>
     <row r="85">
@@ -4797,19 +4797,19 @@
         <v>851</v>
       </c>
       <c r="L85" t="n">
-        <v>1.51380659208516</v>
+        <v>15.1380659208516</v>
       </c>
       <c r="M85" t="n">
-        <v>0.0498079724775375</v>
+        <v>0.498079724775375</v>
       </c>
       <c r="N85" t="n">
-        <v>0.0355771231982411</v>
+        <v>0.355771231982411</v>
       </c>
       <c r="O85" t="n">
-        <v>0.992601737230926</v>
+        <v>9.92601737230926</v>
       </c>
       <c r="P85" t="n">
-        <v>0.435819759178453</v>
+        <v>4.35819759178453</v>
       </c>
     </row>
     <row r="86">
@@ -4847,19 +4847,19 @@
         <v>817</v>
       </c>
       <c r="L86" t="n">
-        <v>1.4407925946435</v>
+        <v>14.407925946435</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0670136090531859</v>
+        <v>0.670136090531859</v>
       </c>
       <c r="N86" t="n">
-        <v>0.10757447769064</v>
+        <v>1.0757447769064</v>
       </c>
       <c r="O86" t="n">
-        <v>0.954062170994041</v>
+        <v>9.54062170994041</v>
       </c>
       <c r="P86" t="n">
-        <v>0.312142336905629</v>
+        <v>3.12142336905629</v>
       </c>
     </row>
     <row r="87">
@@ -4897,19 +4897,19 @@
         <v>850</v>
       </c>
       <c r="L87" t="n">
-        <v>1.48585293202485</v>
+        <v>14.8585293202485</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0996395495593135</v>
+        <v>0.996395495593135</v>
       </c>
       <c r="N87" t="n">
-        <v>0.104883736378225</v>
+        <v>1.04883736378225</v>
       </c>
       <c r="O87" t="n">
-        <v>0.964930374679668</v>
+        <v>9.64930374679668</v>
       </c>
       <c r="P87" t="n">
-        <v>0.316399271407645</v>
+        <v>3.16399271407645</v>
       </c>
     </row>
     <row r="88">
@@ -4947,19 +4947,19 @@
         <v>806</v>
       </c>
       <c r="L88" t="n">
-        <v>1.39473392768149</v>
+        <v>13.9473392768149</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0830610775790465</v>
+        <v>0.830610775790464</v>
       </c>
       <c r="N88" t="n">
-        <v>0.167852594274323</v>
+        <v>1.67852594274323</v>
       </c>
       <c r="O88" t="n">
-        <v>0.828880336674234</v>
+        <v>8.28880336674234</v>
       </c>
       <c r="P88" t="n">
-        <v>0.314939919153884</v>
+        <v>3.14939919153885</v>
       </c>
     </row>
     <row r="89">
@@ -4997,19 +4997,19 @@
         <v>663</v>
       </c>
       <c r="L89" t="n">
-        <v>1.13581270568403</v>
+        <v>11.3581270568403</v>
       </c>
       <c r="M89" t="n">
-        <v>0.0719519361066807</v>
+        <v>0.719519361066807</v>
       </c>
       <c r="N89" t="n">
-        <v>0.147330154885108</v>
+        <v>1.47330154885108</v>
       </c>
       <c r="O89" t="n">
-        <v>0.656133131639493</v>
+        <v>6.56133131639493</v>
       </c>
       <c r="P89" t="n">
-        <v>0.260397483052749</v>
+        <v>2.60397483052749</v>
       </c>
     </row>
     <row r="90">
@@ -5047,19 +5047,19 @@
         <v>497</v>
       </c>
       <c r="L90" t="n">
-        <v>0.842930072420753</v>
+        <v>8.42930072420753</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0831057817879615</v>
+        <v>0.831057817879615</v>
       </c>
       <c r="N90" t="n">
-        <v>0.100066145418158</v>
+        <v>1.00066145418158</v>
       </c>
       <c r="O90" t="n">
-        <v>0.476586218008514</v>
+        <v>4.76586218008514</v>
       </c>
       <c r="P90" t="n">
-        <v>0.183171927206119</v>
+        <v>1.83171927206119</v>
       </c>
     </row>
     <row r="91">
@@ -5097,19 +5097,19 @@
         <v>536</v>
       </c>
       <c r="L91" t="n">
-        <v>0.900344012040421</v>
+        <v>9.00344012040421</v>
       </c>
       <c r="M91" t="n">
-        <v>0.08902655342937</v>
+        <v>0.8902655342937</v>
       </c>
       <c r="N91" t="n">
-        <v>0.141098688454096</v>
+        <v>1.41098688454096</v>
       </c>
       <c r="O91" t="n">
-        <v>0.497204902171576</v>
+        <v>4.97204902171576</v>
       </c>
       <c r="P91" t="n">
-        <v>0.173013867985379</v>
+        <v>1.73013867985379</v>
       </c>
     </row>
     <row r="92">
@@ -5147,19 +5147,19 @@
         <v>1159</v>
       </c>
       <c r="L92" t="n">
-        <v>0.697874943700339</v>
+        <v>6.97874943700339</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0168597915648054</v>
+        <v>0.168597915648054</v>
       </c>
       <c r="N92" t="n">
-        <v>0.10718010351912</v>
+        <v>1.0718010351912</v>
       </c>
       <c r="O92" t="n">
-        <v>0.435343903619797</v>
+        <v>4.35343903619797</v>
       </c>
       <c r="P92" t="n">
-        <v>0.138491144996616</v>
+        <v>1.38491144996616</v>
       </c>
     </row>
     <row r="93">
@@ -5197,19 +5197,19 @@
         <v>1118</v>
       </c>
       <c r="L93" t="n">
-        <v>0.663444785727511</v>
+        <v>6.6344478572751</v>
       </c>
       <c r="M93" t="n">
-        <v>0.00415394767450141</v>
+        <v>0.0415394767450141</v>
       </c>
       <c r="N93" t="n">
-        <v>0.197609225086996</v>
+        <v>1.97609225086996</v>
       </c>
       <c r="O93" t="n">
-        <v>0.367327658645196</v>
+        <v>3.67327658645196</v>
       </c>
       <c r="P93" t="n">
-        <v>0.0943539543208177</v>
+        <v>0.943539543208177</v>
       </c>
     </row>
     <row r="94">
@@ -5247,19 +5247,19 @@
         <v>829</v>
       </c>
       <c r="L94" t="n">
-        <v>0.485008328219001</v>
+        <v>4.85008328219001</v>
       </c>
       <c r="M94" t="n">
-        <v>0.00234020906257661</v>
+        <v>0.0234020906257661</v>
       </c>
       <c r="N94" t="n">
-        <v>0.135147073363799</v>
+        <v>1.35147073363799</v>
       </c>
       <c r="O94" t="n">
-        <v>0.289015819228211</v>
+        <v>2.89015819228211</v>
       </c>
       <c r="P94" t="n">
-        <v>0.0585052265644151</v>
+        <v>0.585052265644151</v>
       </c>
     </row>
     <row r="95">
@@ -5297,19 +5297,19 @@
         <v>689</v>
       </c>
       <c r="L95" t="n">
-        <v>0.397573015813481</v>
+        <v>3.97573015813481</v>
       </c>
       <c r="M95" t="n">
-        <v>0.00173108715158265</v>
+        <v>0.0173108715158265</v>
       </c>
       <c r="N95" t="n">
-        <v>0.0888624737812425</v>
+        <v>0.888624737812425</v>
       </c>
       <c r="O95" t="n">
-        <v>0.253315753181594</v>
+        <v>2.53315753181594</v>
       </c>
       <c r="P95" t="n">
-        <v>0.053663701699062</v>
+        <v>0.53663701699062</v>
       </c>
     </row>
     <row r="96">
@@ -5347,19 +5347,19 @@
         <v>784</v>
       </c>
       <c r="L96" t="n">
-        <v>0.446334026365589</v>
+        <v>4.46334026365589</v>
       </c>
       <c r="M96" t="n">
-        <v>0.00569303605058149</v>
+        <v>0.0569303605058149</v>
       </c>
       <c r="N96" t="n">
-        <v>0.0666085217918034</v>
+        <v>0.666085217918034</v>
       </c>
       <c r="O96" t="n">
-        <v>0.329626787328668</v>
+        <v>3.29626787328668</v>
       </c>
       <c r="P96" t="n">
-        <v>0.0444056811945356</v>
+        <v>0.444056811945356</v>
       </c>
     </row>
     <row r="97">
@@ -5397,19 +5397,19 @@
         <v>822</v>
       </c>
       <c r="L97" t="n">
-        <v>0.461796196192597</v>
+        <v>4.61796196192597</v>
       </c>
       <c r="M97" t="n">
-        <v>0.00505616273203573</v>
+        <v>0.0505616273203573</v>
       </c>
       <c r="N97" t="n">
-        <v>0.0601121569253137</v>
+        <v>0.601121569253137</v>
       </c>
       <c r="O97" t="n">
-        <v>0.353369595383386</v>
+        <v>3.53369595383386</v>
       </c>
       <c r="P97" t="n">
-        <v>0.0432582811518613</v>
+        <v>0.432582811518613</v>
       </c>
     </row>
     <row r="98">
@@ -5447,19 +5447,19 @@
         <v>772</v>
       </c>
       <c r="L98" t="n">
-        <v>0.427766714208615</v>
+        <v>4.27766714208615</v>
       </c>
       <c r="M98" t="n">
-        <v>0.000554101961410123</v>
+        <v>0.00554101961410123</v>
       </c>
       <c r="N98" t="n">
-        <v>0.0526396863339617</v>
+        <v>0.526396863339617</v>
       </c>
       <c r="O98" t="n">
-        <v>0.336339890575945</v>
+        <v>3.36339890575945</v>
       </c>
       <c r="P98" t="n">
-        <v>0.0382330353372985</v>
+        <v>0.382330353372985</v>
       </c>
     </row>
     <row r="99">
@@ -5497,19 +5497,19 @@
         <v>706</v>
       </c>
       <c r="L99" t="n">
-        <v>0.38596191988174</v>
+        <v>3.8596191988174</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0016400648153615</v>
+        <v>0.016400648153615</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0502953210044194</v>
+        <v>0.502953210044194</v>
       </c>
       <c r="O99" t="n">
-        <v>0.296851731580432</v>
+        <v>2.96851731580432</v>
       </c>
       <c r="P99" t="n">
-        <v>0.0371748024815274</v>
+        <v>0.371748024815274</v>
       </c>
     </row>
     <row r="100">
@@ -5547,19 +5547,19 @@
         <v>736</v>
       </c>
       <c r="L100" t="n">
-        <v>0.397169305288288</v>
+        <v>3.97169305288288</v>
       </c>
       <c r="M100" t="n">
-        <v>0.00215852883308852</v>
+        <v>0.0215852883308852</v>
       </c>
       <c r="N100" t="n">
-        <v>0.0518046919941245</v>
+        <v>0.518046919941245</v>
       </c>
       <c r="O100" t="n">
-        <v>0.285465438175957</v>
+        <v>2.85465438175957</v>
       </c>
       <c r="P100" t="n">
-        <v>0.0577406462851179</v>
+        <v>0.577406462851179</v>
       </c>
     </row>
     <row r="101">
@@ -5597,19 +5597,19 @@
         <v>761</v>
       </c>
       <c r="L101" t="n">
-        <v>0.404558486345221</v>
+        <v>4.04558486345221</v>
       </c>
       <c r="M101" t="n">
-        <v>0.00159484291594699</v>
+        <v>0.0159484291594699</v>
       </c>
       <c r="N101" t="n">
-        <v>0.0308336297083085</v>
+        <v>0.308336297083085</v>
       </c>
       <c r="O101" t="n">
-        <v>0.338638312486078</v>
+        <v>3.38638312486078</v>
       </c>
       <c r="P101" t="n">
-        <v>0.0334917012348869</v>
+        <v>0.334917012348869</v>
       </c>
     </row>
     <row r="102">
@@ -5647,19 +5647,19 @@
         <v>763</v>
       </c>
       <c r="L102" t="n">
-        <v>1.38277243154098</v>
+        <v>13.8277243154098</v>
       </c>
       <c r="M102" t="n">
-        <v>0.0036245673172765</v>
+        <v>0.036245673172765</v>
       </c>
       <c r="N102" t="n">
-        <v>0.0199351202450208</v>
+        <v>0.199351202450207</v>
       </c>
       <c r="O102" t="n">
-        <v>1.25047572446039</v>
+        <v>12.5047572446039</v>
       </c>
       <c r="P102" t="n">
-        <v>0.108737019518295</v>
+        <v>1.08737019518295</v>
       </c>
     </row>
     <row r="103">
@@ -5697,19 +5697,19 @@
         <v>789</v>
       </c>
       <c r="L103" t="n">
-        <v>1.4055377116991</v>
+        <v>14.055377116991</v>
       </c>
       <c r="M103" t="n">
-        <v>0.00178141661812306</v>
+        <v>0.0178141661812306</v>
       </c>
       <c r="N103" t="n">
-        <v>0.0338469157443382</v>
+        <v>0.338469157443382</v>
       </c>
       <c r="O103" t="n">
-        <v>1.30399696446608</v>
+        <v>13.0399696446608</v>
       </c>
       <c r="P103" t="n">
-        <v>0.0659124148705534</v>
+        <v>0.659124148705534</v>
       </c>
     </row>
     <row r="104">
@@ -5747,19 +5747,19 @@
         <v>703</v>
       </c>
       <c r="L104" t="n">
-        <v>1.23197599837372</v>
+        <v>12.3197599837372</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0017524551897208</v>
+        <v>0.017524551897208</v>
       </c>
       <c r="N104" t="n">
-        <v>0.0315441934149744</v>
+        <v>0.315441934149744</v>
       </c>
       <c r="O104" t="n">
-        <v>1.1373434181288</v>
+        <v>11.373434181288</v>
       </c>
       <c r="P104" t="n">
-        <v>0.061335931640228</v>
+        <v>0.61335931640228</v>
       </c>
     </row>
     <row r="105">
@@ -5797,19 +5797,19 @@
         <v>573</v>
       </c>
       <c r="L105" t="n">
-        <v>0.988536086742748</v>
+        <v>9.88536086742748</v>
       </c>
       <c r="M105" t="n">
-        <v>0.00172519386866099</v>
+        <v>0.0172519386866099</v>
       </c>
       <c r="N105" t="n">
-        <v>0.0207023264239319</v>
+        <v>0.207023264239319</v>
       </c>
       <c r="O105" t="n">
-        <v>0.935055076814257</v>
+        <v>9.35055076814257</v>
       </c>
       <c r="P105" t="n">
-        <v>0.0310534896358978</v>
+        <v>0.310534896358978</v>
       </c>
     </row>
     <row r="106">
@@ -5847,19 +5847,19 @@
         <v>600</v>
       </c>
       <c r="L106" t="n">
-        <v>1.01951348816345</v>
+        <v>10.1951348816345</v>
       </c>
       <c r="M106" t="n">
-        <v>0.00169918914693908</v>
+        <v>0.0169918914693908</v>
       </c>
       <c r="N106" t="n">
-        <v>0.0373821612326598</v>
+        <v>0.373821612326598</v>
       </c>
       <c r="O106" t="n">
-        <v>0.953245111432824</v>
+        <v>9.53245111432824</v>
       </c>
       <c r="P106" t="n">
-        <v>0.0271870263510253</v>
+        <v>0.271870263510253</v>
       </c>
     </row>
     <row r="107">
@@ -5897,19 +5897,19 @@
         <v>761</v>
       </c>
       <c r="L107" t="n">
-        <v>1.27408156465922</v>
+        <v>12.7408156465922</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>0.0351586239919102</v>
+        <v>0.351586239919102</v>
       </c>
       <c r="O107" t="n">
-        <v>1.20878697724567</v>
+        <v>12.0878697724567</v>
       </c>
       <c r="P107" t="n">
-        <v>0.0301359634216373</v>
+        <v>0.301359634216373</v>
       </c>
     </row>
     <row r="108">
@@ -5947,19 +5947,19 @@
         <v>1180</v>
       </c>
       <c r="L108" t="n">
-        <v>1.94685096855836</v>
+        <v>19.4685096855836</v>
       </c>
       <c r="M108" t="n">
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>0.0956926747257497</v>
+        <v>0.956926747257497</v>
       </c>
       <c r="O108" t="n">
-        <v>1.81486107238491</v>
+        <v>18.1486107238491</v>
       </c>
       <c r="P108" t="n">
-        <v>0.0362972214476982</v>
+        <v>0.362972214476982</v>
       </c>
     </row>
     <row r="109">
@@ -5997,19 +5997,19 @@
         <v>1075</v>
       </c>
       <c r="L109" t="n">
-        <v>1.74861859131286</v>
+        <v>17.4861859131286</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>0.126876511741771</v>
+        <v>1.26876511741771</v>
       </c>
       <c r="O109" t="n">
-        <v>1.59896937233539</v>
+        <v>15.9896937233539</v>
       </c>
       <c r="P109" t="n">
-        <v>0.0227727072357024</v>
+        <v>0.227727072357024</v>
       </c>
     </row>
     <row r="110">
@@ -6047,19 +6047,19 @@
         <v>1089</v>
       </c>
       <c r="L110" t="n">
-        <v>1.74730924004082</v>
+        <v>17.4730924004082</v>
       </c>
       <c r="M110" t="n">
-        <v>0.00160450802574914</v>
+        <v>0.0160450802574914</v>
       </c>
       <c r="N110" t="n">
-        <v>0.162055310600664</v>
+        <v>1.62055310600664</v>
       </c>
       <c r="O110" t="n">
-        <v>1.55637278497667</v>
+        <v>15.5637278497667</v>
       </c>
       <c r="P110" t="n">
-        <v>0.0272766364377355</v>
+        <v>0.272766364377355</v>
       </c>
     </row>
     <row r="111">
@@ -6097,19 +6097,19 @@
         <v>1319</v>
       </c>
       <c r="L111" t="n">
-        <v>2.08899200988272</v>
+        <v>20.8899200988272</v>
       </c>
       <c r="M111" t="n">
-        <v>0.00158376952985801</v>
+        <v>0.0158376952985801</v>
       </c>
       <c r="N111" t="n">
-        <v>0.270824589605721</v>
+        <v>2.70824589605721</v>
       </c>
       <c r="O111" t="n">
-        <v>1.77857318203055</v>
+        <v>17.7857318203055</v>
       </c>
       <c r="P111" t="n">
-        <v>0.0380104687165924</v>
+        <v>0.380104687165924</v>
       </c>
     </row>
     <row r="112">
@@ -6147,19 +6147,19 @@
         <v>1365</v>
       </c>
       <c r="L112" t="n">
-        <v>2.74791088313628</v>
+        <v>27.4791088313628</v>
       </c>
       <c r="M112" t="n">
-        <v>0.00805248610442866</v>
+        <v>0.0805248610442867</v>
       </c>
       <c r="N112" t="n">
-        <v>1.23203037397759</v>
+        <v>12.3203037397759</v>
       </c>
       <c r="O112" t="n">
-        <v>0.946167117270368</v>
+        <v>9.46167117270368</v>
       </c>
       <c r="P112" t="n">
-        <v>0.561660905783899</v>
+        <v>5.61660905783899</v>
       </c>
     </row>
     <row r="113">
@@ -6197,19 +6197,19 @@
         <v>1490</v>
       </c>
       <c r="L113" t="n">
-        <v>2.9513015437882</v>
+        <v>29.513015437882</v>
       </c>
       <c r="M113" t="n">
-        <v>0.00990369645566511</v>
+        <v>0.0990369645566511</v>
       </c>
       <c r="N113" t="n">
-        <v>1.4994196433877</v>
+        <v>14.994196433877</v>
       </c>
       <c r="O113" t="n">
-        <v>1.03988812784484</v>
+        <v>10.3988812784484</v>
       </c>
       <c r="P113" t="n">
-        <v>0.402090076100004</v>
+        <v>4.02090076100004</v>
       </c>
     </row>
     <row r="114">
@@ -6247,19 +6247,19 @@
         <v>1272</v>
       </c>
       <c r="L114" t="n">
-        <v>2.48200933485272</v>
+        <v>24.8200933485272</v>
       </c>
       <c r="M114" t="n">
-        <v>0.00390253040071182</v>
+        <v>0.0390253040071182</v>
       </c>
       <c r="N114" t="n">
-        <v>1.44003371786266</v>
+        <v>14.4003371786266</v>
       </c>
       <c r="O114" t="n">
-        <v>0.805872527746991</v>
+        <v>8.05872527746991</v>
       </c>
       <c r="P114" t="n">
-        <v>0.232200558842353</v>
+        <v>2.32200558842353</v>
       </c>
     </row>
     <row r="115">
@@ -6297,19 +6297,19 @@
         <v>1175</v>
       </c>
       <c r="L115" t="n">
-        <v>2.26028912464292</v>
+        <v>22.6028912464292</v>
       </c>
       <c r="M115" t="n">
-        <v>0.00192365031884504</v>
+        <v>0.0192365031884504</v>
       </c>
       <c r="N115" t="n">
-        <v>1.4350431378584</v>
+        <v>14.350431378584</v>
       </c>
       <c r="O115" t="n">
-        <v>0.682895863189989</v>
+        <v>6.82895863189989</v>
       </c>
       <c r="P115" t="n">
-        <v>0.140426473275688</v>
+        <v>1.40426473275688</v>
       </c>
     </row>
     <row r="116">
@@ -6347,19 +6347,19 @@
         <v>824</v>
       </c>
       <c r="L116" t="n">
-        <v>1.56123587735204</v>
+        <v>15.6123587735204</v>
       </c>
       <c r="M116" t="n">
-        <v>0.00378940746930106</v>
+        <v>0.0378940746930106</v>
       </c>
       <c r="N116" t="n">
-        <v>0.858300791796691</v>
+        <v>8.58300791796691</v>
       </c>
       <c r="O116" t="n">
-        <v>0.585463454007014</v>
+        <v>5.85463454007014</v>
       </c>
       <c r="P116" t="n">
-        <v>0.113682224079032</v>
+        <v>1.13682224079032</v>
       </c>
     </row>
     <row r="117">
@@ -6397,19 +6397,19 @@
         <v>924</v>
       </c>
       <c r="L117" t="n">
-        <v>1.72389024565436</v>
+        <v>17.2389024565436</v>
       </c>
       <c r="M117" t="n">
         <v>0</v>
       </c>
       <c r="N117" t="n">
-        <v>0.787317839465519</v>
+        <v>7.87317839465519</v>
       </c>
       <c r="O117" t="n">
-        <v>0.830228527398474</v>
+        <v>8.30228527398474</v>
       </c>
       <c r="P117" t="n">
-        <v>0.106343878790366</v>
+        <v>1.06343878790366</v>
       </c>
     </row>
     <row r="118">
@@ -6447,19 +6447,19 @@
         <v>741</v>
       </c>
       <c r="L118" t="n">
-        <v>1.36068412480099</v>
+        <v>13.6068412480099</v>
       </c>
       <c r="M118" t="n">
-        <v>0.00550884261053034</v>
+        <v>0.0550884261053034</v>
       </c>
       <c r="N118" t="n">
-        <v>0.672078798484701</v>
+        <v>6.72078798484701</v>
       </c>
       <c r="O118" t="n">
-        <v>0.589446159326746</v>
+        <v>5.89446159326746</v>
       </c>
       <c r="P118" t="n">
-        <v>0.0936503243790157</v>
+        <v>0.936503243790157</v>
       </c>
     </row>
     <row r="119">
@@ -6497,19 +6497,19 @@
         <v>767</v>
       </c>
       <c r="L119" t="n">
-        <v>1.38712057640557</v>
+        <v>13.8712057640557</v>
       </c>
       <c r="M119" t="n">
-        <v>0.00542550421019127</v>
+        <v>0.0542550421019127</v>
       </c>
       <c r="N119" t="n">
-        <v>0.549784426632715</v>
+        <v>5.49784426632715</v>
       </c>
       <c r="O119" t="n">
-        <v>0.736060071182615</v>
+        <v>7.36060071182615</v>
       </c>
       <c r="P119" t="n">
-        <v>0.0958505743800457</v>
+        <v>0.958505743800457</v>
       </c>
     </row>
     <row r="120">
@@ -6547,19 +6547,19 @@
         <v>923</v>
       </c>
       <c r="L120" t="n">
-        <v>1.64425925497063</v>
+        <v>16.4425925497063</v>
       </c>
       <c r="M120" t="n">
-        <v>0.00534428793598256</v>
+        <v>0.0534428793598256</v>
       </c>
       <c r="N120" t="n">
-        <v>0.749981740349552</v>
+        <v>7.49981740349552</v>
       </c>
       <c r="O120" t="n">
-        <v>0.803424619709378</v>
+        <v>8.03424619709378</v>
       </c>
       <c r="P120" t="n">
-        <v>0.0855086069757209</v>
+        <v>0.855086069757209</v>
       </c>
     </row>
     <row r="121">
@@ -6597,19 +6597,19 @@
         <v>868</v>
       </c>
       <c r="L121" t="n">
-        <v>1.52399412875995</v>
+        <v>15.2399412875995</v>
       </c>
       <c r="M121" t="n">
-        <v>0.00526726081368645</v>
+        <v>0.0526726081368645</v>
       </c>
       <c r="N121" t="n">
-        <v>0.728637745893292</v>
+        <v>7.28637745893292</v>
       </c>
       <c r="O121" t="n">
-        <v>0.679476644965552</v>
+        <v>6.79476644965552</v>
       </c>
       <c r="P121" t="n">
-        <v>0.110612477087415</v>
+        <v>1.10612477087415</v>
       </c>
     </row>
     <row r="122">
@@ -6647,19 +6647,19 @@
         <v>1412</v>
       </c>
       <c r="L122" t="n">
-        <v>1.31046880815089</v>
+        <v>13.1046880815089</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0464047028382044</v>
+        <v>0.464047028382044</v>
       </c>
       <c r="N122" t="n">
-        <v>0.171697400501356</v>
+        <v>1.71697400501356</v>
       </c>
       <c r="O122" t="n">
-        <v>0.735978587013922</v>
+        <v>7.35978587013922</v>
       </c>
       <c r="P122" t="n">
-        <v>0.35638811779741</v>
+        <v>3.5638811779741</v>
       </c>
     </row>
     <row r="123">
@@ -6697,19 +6697,19 @@
         <v>1429</v>
       </c>
       <c r="L123" t="n">
-        <v>1.31174206506204</v>
+        <v>13.1174206506204</v>
       </c>
       <c r="M123" t="n">
-        <v>0.0367177624929892</v>
+        <v>0.367177624929892</v>
       </c>
       <c r="N123" t="n">
-        <v>0.133101889037086</v>
+        <v>1.33101889037086</v>
       </c>
       <c r="O123" t="n">
-        <v>0.853687977961999</v>
+        <v>8.53687977961999</v>
       </c>
       <c r="P123" t="n">
-        <v>0.288234435569965</v>
+        <v>2.88234435569965</v>
       </c>
     </row>
     <row r="124">
@@ -6747,19 +6747,19 @@
         <v>1169</v>
       </c>
       <c r="L124" t="n">
-        <v>1.06172635433687</v>
+        <v>10.6172635433687</v>
       </c>
       <c r="M124" t="n">
-        <v>0.054494081488633</v>
+        <v>0.54494081488633</v>
       </c>
       <c r="N124" t="n">
-        <v>0.118070509892038</v>
+        <v>1.18070509892038</v>
       </c>
       <c r="O124" t="n">
-        <v>0.565830212790306</v>
+        <v>5.65830212790306</v>
       </c>
       <c r="P124" t="n">
-        <v>0.323331550165889</v>
+        <v>3.23331550165889</v>
       </c>
     </row>
     <row r="125">
@@ -6797,19 +6797,19 @@
         <v>1159</v>
       </c>
       <c r="L125" t="n">
-        <v>1.04174531439316</v>
+        <v>10.4174531439316</v>
       </c>
       <c r="M125" t="n">
-        <v>0.0395485710382219</v>
+        <v>0.395485710382219</v>
       </c>
       <c r="N125" t="n">
-        <v>0.0952761029557164</v>
+        <v>0.952761029557164</v>
       </c>
       <c r="O125" t="n">
-        <v>0.561769474974743</v>
+        <v>5.61769474974743</v>
       </c>
       <c r="P125" t="n">
-        <v>0.345151165424482</v>
+        <v>3.45151165424482</v>
       </c>
     </row>
     <row r="126">
@@ -6847,19 +6847,19 @@
         <v>1096</v>
       </c>
       <c r="L126" t="n">
-        <v>0.975053401077007</v>
+        <v>9.75053401077007</v>
       </c>
       <c r="M126" t="n">
-        <v>0.0364755378140121</v>
+        <v>0.364755378140121</v>
       </c>
       <c r="N126" t="n">
-        <v>0.058716719407922</v>
+        <v>0.587167194079219</v>
       </c>
       <c r="O126" t="n">
-        <v>0.51065752939617</v>
+        <v>5.1065752939617</v>
       </c>
       <c r="P126" t="n">
-        <v>0.369203614458903</v>
+        <v>3.69203614458903</v>
       </c>
     </row>
     <row r="127">
@@ -6897,19 +6897,19 @@
         <v>867</v>
       </c>
       <c r="L127" t="n">
-        <v>0.763433389776332</v>
+        <v>7.63433389776332</v>
       </c>
       <c r="M127" t="n">
-        <v>0.0396245704036159</v>
+        <v>0.396245704036159</v>
       </c>
       <c r="N127" t="n">
-        <v>0.0281774722870157</v>
+        <v>0.281774722870157</v>
       </c>
       <c r="O127" t="n">
-        <v>0.39448461201822</v>
+        <v>3.9448461201822</v>
       </c>
       <c r="P127" t="n">
-        <v>0.301146735067481</v>
+        <v>3.01146735067481</v>
       </c>
     </row>
     <row r="128">
@@ -6947,19 +6947,19 @@
         <v>915</v>
       </c>
       <c r="L128" t="n">
-        <v>0.797279317006099</v>
+        <v>7.97279317006099</v>
       </c>
       <c r="M128" t="n">
-        <v>0.0426958322768293</v>
+        <v>0.426958322768293</v>
       </c>
       <c r="N128" t="n">
-        <v>0.0287543360231708</v>
+        <v>0.287543360231708</v>
       </c>
       <c r="O128" t="n">
-        <v>0.429572353315854</v>
+        <v>4.29572353315854</v>
       </c>
       <c r="P128" t="n">
-        <v>0.296256795390244</v>
+        <v>2.96256795390244</v>
       </c>
     </row>
     <row r="129">
@@ -6997,19 +6997,19 @@
         <v>870</v>
       </c>
       <c r="L129" t="n">
-        <v>0.750183665656074</v>
+        <v>7.50183665656074</v>
       </c>
       <c r="M129" t="n">
-        <v>0.0258684022640026</v>
+        <v>0.258684022640026</v>
       </c>
       <c r="N129" t="n">
-        <v>0.0508745244525384</v>
+        <v>0.508745244525384</v>
       </c>
       <c r="O129" t="n">
-        <v>0.44062511856351</v>
+        <v>4.4062511856351</v>
       </c>
       <c r="P129" t="n">
-        <v>0.232815620376023</v>
+        <v>2.32815620376023</v>
       </c>
     </row>
     <row r="130">
@@ -7047,19 +7047,19 @@
         <v>809</v>
       </c>
       <c r="L130" t="n">
-        <v>0.69044918456159</v>
+        <v>6.9044918456159</v>
       </c>
       <c r="M130" t="n">
-        <v>0.0281641818177163</v>
+        <v>0.281641818177163</v>
       </c>
       <c r="N130" t="n">
-        <v>0.0298711019278809</v>
+        <v>0.298711019278809</v>
       </c>
       <c r="O130" t="n">
-        <v>0.392591625337864</v>
+        <v>3.92591625337863</v>
       </c>
       <c r="P130" t="n">
-        <v>0.23982227547813</v>
+        <v>2.3982227547813</v>
       </c>
     </row>
     <row r="131">
@@ -7097,19 +7097,19 @@
         <v>885</v>
       </c>
       <c r="L131" t="n">
-        <v>0.747860990810183</v>
+        <v>7.47860990810183</v>
       </c>
       <c r="M131" t="n">
-        <v>0.0194359353543889</v>
+        <v>0.194359353543889</v>
       </c>
       <c r="N131" t="n">
-        <v>0.0219710573571353</v>
+        <v>0.219710573571353</v>
       </c>
       <c r="O131" t="n">
-        <v>0.42505545579381</v>
+        <v>4.2505545579381</v>
       </c>
       <c r="P131" t="n">
-        <v>0.281398542304848</v>
+        <v>2.81398542304848</v>
       </c>
     </row>
     <row r="132">
@@ -7147,19 +7147,19 @@
         <v>274</v>
       </c>
       <c r="L132" t="n">
-        <v>0.44596499337563</v>
+        <v>4.4596499337563</v>
       </c>
       <c r="M132" t="n">
-        <v>0.00651043785949824</v>
+        <v>0.0651043785949824</v>
       </c>
       <c r="N132" t="n">
-        <v>0.0634767691301078</v>
+        <v>0.634767691301078</v>
       </c>
       <c r="O132" t="n">
-        <v>0.279948827958424</v>
+        <v>2.79948827958424</v>
       </c>
       <c r="P132" t="n">
-        <v>0.0960289584275991</v>
+        <v>0.960289584275991</v>
       </c>
     </row>
     <row r="133">
@@ -7197,19 +7197,19 @@
         <v>467</v>
       </c>
       <c r="L133" t="n">
-        <v>0.749630000609977</v>
+        <v>7.49630000609977</v>
       </c>
       <c r="M133" t="n">
-        <v>0.00642081370972143</v>
+        <v>0.0642081370972143</v>
       </c>
       <c r="N133" t="n">
-        <v>0.0465508993954804</v>
+        <v>0.465508993954804</v>
       </c>
       <c r="O133" t="n">
-        <v>0.569847216737777</v>
+        <v>5.69847216737777</v>
       </c>
       <c r="P133" t="n">
-        <v>0.126811070766998</v>
+        <v>1.26811070766998</v>
       </c>
     </row>
     <row r="134">
@@ -7247,19 +7247,19 @@
         <v>443</v>
       </c>
       <c r="L134" t="n">
-        <v>0.701237851014658</v>
+        <v>7.01237851014658</v>
       </c>
       <c r="M134" t="n">
-        <v>0.0158292968626334</v>
+        <v>0.158292968626334</v>
       </c>
       <c r="N134" t="n">
-        <v>0.0759806249406401</v>
+        <v>0.759806249406401</v>
       </c>
       <c r="O134" t="n">
-        <v>0.511286288663058</v>
+        <v>5.11286288663058</v>
       </c>
       <c r="P134" t="n">
-        <v>0.0981416405483268</v>
+        <v>0.981416405483268</v>
       </c>
     </row>
     <row r="135">
@@ -7297,19 +7297,19 @@
         <v>506</v>
       </c>
       <c r="L135" t="n">
-        <v>0.790239758117917</v>
+        <v>7.90239758117917</v>
       </c>
       <c r="M135" t="n">
-        <v>0.00937043191444171</v>
+        <v>0.0937043191444171</v>
       </c>
       <c r="N135" t="n">
-        <v>0.0484138982246155</v>
+        <v>0.484138982246155</v>
       </c>
       <c r="O135" t="n">
-        <v>0.601269381176676</v>
+        <v>6.01269381176676</v>
       </c>
       <c r="P135" t="n">
-        <v>0.131186046802184</v>
+        <v>1.31186046802184</v>
       </c>
     </row>
     <row r="136">
@@ -7347,19 +7347,19 @@
         <v>371</v>
       </c>
       <c r="L136" t="n">
-        <v>0.571757051028161</v>
+        <v>5.71757051028161</v>
       </c>
       <c r="M136" t="n">
-        <v>0.00308224825352108</v>
+        <v>0.0308224825352108</v>
       </c>
       <c r="N136" t="n">
-        <v>0.0601038409436611</v>
+        <v>0.601038409436611</v>
       </c>
       <c r="O136" t="n">
-        <v>0.429973631366191</v>
+        <v>4.29973631366191</v>
       </c>
       <c r="P136" t="n">
-        <v>0.0785973304647876</v>
+        <v>0.785973304647876</v>
       </c>
     </row>
     <row r="137">
@@ -7397,19 +7397,19 @@
         <v>426</v>
       </c>
       <c r="L137" t="n">
-        <v>0.647513835668284</v>
+        <v>6.47513835668284</v>
       </c>
       <c r="M137" t="n">
-        <v>0.00455995658921327</v>
+        <v>0.0455995658921327</v>
       </c>
       <c r="N137" t="n">
-        <v>0.056239464600297</v>
+        <v>0.56239464600297</v>
       </c>
       <c r="O137" t="n">
-        <v>0.503115210343198</v>
+        <v>5.03115210343198</v>
       </c>
       <c r="P137" t="n">
-        <v>0.0835992041355766</v>
+        <v>0.835992041355766</v>
       </c>
     </row>
     <row r="138">
@@ -7447,19 +7447,19 @@
         <v>390</v>
       </c>
       <c r="L138" t="n">
-        <v>0.584085905557802</v>
+        <v>5.84085905557802</v>
       </c>
       <c r="M138" t="n">
-        <v>0.00599062467238771</v>
+        <v>0.0599062467238771</v>
       </c>
       <c r="N138" t="n">
-        <v>0.0344460918662294</v>
+        <v>0.344460918662294</v>
       </c>
       <c r="O138" t="n">
-        <v>0.45828278743766</v>
+        <v>4.5828278743766</v>
       </c>
       <c r="P138" t="n">
-        <v>0.0853664015815249</v>
+        <v>0.853664015815249</v>
       </c>
     </row>
     <row r="139">
@@ -7497,19 +7497,19 @@
         <v>350</v>
       </c>
       <c r="L139" t="n">
-        <v>0.516415369111574</v>
+        <v>5.16415369111574</v>
       </c>
       <c r="M139" t="n">
-        <v>0.00442641744952777</v>
+        <v>0.0442641744952778</v>
       </c>
       <c r="N139" t="n">
-        <v>0.0103283073822315</v>
+        <v>0.103283073822315</v>
       </c>
       <c r="O139" t="n">
-        <v>0.321653001332352</v>
+        <v>3.21653001332352</v>
       </c>
       <c r="P139" t="n">
-        <v>0.180007642947463</v>
+        <v>1.80007642947463</v>
       </c>
     </row>
     <row r="140">
@@ -7547,19 +7547,19 @@
         <v>341</v>
       </c>
       <c r="L140" t="n">
-        <v>0.495676278328771</v>
+        <v>4.95676278328772</v>
       </c>
       <c r="M140" t="n">
-        <v>0.0261647302343633</v>
+        <v>0.261647302343633</v>
       </c>
       <c r="N140" t="n">
-        <v>0.0319791147308885</v>
+        <v>0.319791147308885</v>
       </c>
       <c r="O140" t="n">
-        <v>0.28054405195734</v>
+        <v>2.8054405195734</v>
       </c>
       <c r="P140" t="n">
-        <v>0.15698838140618</v>
+        <v>1.5698838140618</v>
       </c>
     </row>
     <row r="141">
@@ -7597,19 +7597,19 @@
         <v>396</v>
       </c>
       <c r="L141" t="n">
-        <v>0.567410031121581</v>
+        <v>5.67410031121581</v>
       </c>
       <c r="M141" t="n">
-        <v>0.00286570722788677</v>
+        <v>0.0286570722788677</v>
       </c>
       <c r="N141" t="n">
-        <v>0.0229256578230942</v>
+        <v>0.229256578230942</v>
       </c>
       <c r="O141" t="n">
-        <v>0.341019160118526</v>
+        <v>3.41019160118526</v>
       </c>
       <c r="P141" t="n">
-        <v>0.200599505952074</v>
+        <v>2.00599505952074</v>
       </c>
     </row>
     <row r="142">
@@ -7647,19 +7647,19 @@
         <v>195</v>
       </c>
       <c r="L142" t="n">
-        <v>0.497536556179532</v>
+        <v>4.97536556179532</v>
       </c>
       <c r="M142" t="n">
-        <v>0.00255146951886939</v>
+        <v>0.0255146951886939</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0688896770094736</v>
+        <v>0.688896770094736</v>
       </c>
       <c r="O142" t="n">
-        <v>0.275558708037894</v>
+        <v>2.75558708037894</v>
       </c>
       <c r="P142" t="n">
-        <v>0.150536701613294</v>
+        <v>1.50536701613294</v>
       </c>
     </row>
     <row r="143">
@@ -7697,19 +7697,19 @@
         <v>174</v>
       </c>
       <c r="L143" t="n">
-        <v>0.434966290112516</v>
+        <v>4.34966290112516</v>
       </c>
       <c r="M143" t="n">
         <v>0</v>
       </c>
       <c r="N143" t="n">
-        <v>0.0174986438551012</v>
+        <v>0.174986438551012</v>
       </c>
       <c r="O143" t="n">
-        <v>0.27997830168162</v>
+        <v>2.7997830168162</v>
       </c>
       <c r="P143" t="n">
-        <v>0.137489344575795</v>
+        <v>1.37489344575795</v>
       </c>
     </row>
     <row r="144">
@@ -7747,19 +7747,19 @@
         <v>150</v>
       </c>
       <c r="L144" t="n">
-        <v>0.367680402389432</v>
+        <v>3.67680402389432</v>
       </c>
       <c r="M144" t="n">
         <v>0</v>
       </c>
       <c r="N144" t="n">
-        <v>0.0392192429215395</v>
+        <v>0.392192429215395</v>
       </c>
       <c r="O144" t="n">
-        <v>0.230413052164044</v>
+        <v>2.30413052164044</v>
       </c>
       <c r="P144" t="n">
-        <v>0.0980481073038486</v>
+        <v>0.980481073038486</v>
       </c>
     </row>
     <row r="145">
@@ -7797,19 +7797,19 @@
         <v>126</v>
       </c>
       <c r="L145" t="n">
-        <v>0.303043421793151</v>
+        <v>3.03043421793151</v>
       </c>
       <c r="M145" t="n">
-        <v>0.00240510652216787</v>
+        <v>0.0240510652216787</v>
       </c>
       <c r="N145" t="n">
-        <v>0.0553174500098609</v>
+        <v>0.553174500098609</v>
       </c>
       <c r="O145" t="n">
-        <v>0.149116604374408</v>
+        <v>1.49116604374408</v>
       </c>
       <c r="P145" t="n">
-        <v>0.0962042608867147</v>
+        <v>0.962042608867147</v>
       </c>
     </row>
     <row r="146">
@@ -7847,19 +7847,19 @@
         <v>130</v>
       </c>
       <c r="L146" t="n">
-        <v>0.306873735621195</v>
+        <v>3.06873735621195</v>
       </c>
       <c r="M146" t="n">
         <v>0</v>
       </c>
       <c r="N146" t="n">
-        <v>0.0448507767446362</v>
+        <v>0.448507767446362</v>
       </c>
       <c r="O146" t="n">
-        <v>0.174681972584373</v>
+        <v>1.74681972584373</v>
       </c>
       <c r="P146" t="n">
-        <v>0.0873409862921863</v>
+        <v>0.873409862921863</v>
       </c>
     </row>
     <row r="147">
@@ -7897,19 +7897,19 @@
         <v>189</v>
       </c>
       <c r="L147" t="n">
-        <v>0.437902424218553</v>
+        <v>4.37902424218553</v>
       </c>
       <c r="M147" t="n">
         <v>0</v>
       </c>
       <c r="N147" t="n">
-        <v>0.0440219368262037</v>
+        <v>0.440219368262037</v>
       </c>
       <c r="O147" t="n">
-        <v>0.254863844783285</v>
+        <v>2.54863844783285</v>
       </c>
       <c r="P147" t="n">
-        <v>0.139016642609064</v>
+        <v>1.39016642609064</v>
       </c>
     </row>
     <row r="148">
@@ -7947,19 +7947,19 @@
         <v>214</v>
       </c>
       <c r="L148" t="n">
-        <v>0.486581492168084</v>
+        <v>4.86581492168084</v>
       </c>
       <c r="M148" t="n">
-        <v>0.00227374529050507</v>
+        <v>0.0227374529050507</v>
       </c>
       <c r="N148" t="n">
-        <v>0.0363799246480811</v>
+        <v>0.363799246480811</v>
       </c>
       <c r="O148" t="n">
-        <v>0.372894227642831</v>
+        <v>3.72894227642831</v>
       </c>
       <c r="P148" t="n">
-        <v>0.0750335945866672</v>
+        <v>0.750335945866672</v>
       </c>
     </row>
     <row r="149">
@@ -7997,19 +7997,19 @@
         <v>196</v>
       </c>
       <c r="L149" t="n">
-        <v>0.437475587299816</v>
+        <v>4.37475587299816</v>
       </c>
       <c r="M149" t="n">
-        <v>0.00223201830255008</v>
+        <v>0.0223201830255008</v>
       </c>
       <c r="N149" t="n">
-        <v>0.0200881647229507</v>
+        <v>0.200881647229507</v>
       </c>
       <c r="O149" t="n">
-        <v>0.341498800290162</v>
+        <v>3.41498800290162</v>
       </c>
       <c r="P149" t="n">
-        <v>0.0736566039841527</v>
+        <v>0.736566039841527</v>
       </c>
     </row>
     <row r="150">
@@ -8047,19 +8047,19 @@
         <v>192</v>
       </c>
       <c r="L150" t="n">
-        <v>0.420791482479075</v>
+        <v>4.20791482479075</v>
       </c>
       <c r="M150" t="n">
-        <v>0.0153413561320496</v>
+        <v>0.153413561320496</v>
       </c>
       <c r="N150" t="n">
-        <v>0.0328743345686778</v>
+        <v>0.328743345686778</v>
       </c>
       <c r="O150" t="n">
-        <v>0.322168478773042</v>
+        <v>3.22168478773042</v>
       </c>
       <c r="P150" t="n">
-        <v>0.0504073130053059</v>
+        <v>0.504073130053059</v>
       </c>
     </row>
     <row r="151">
@@ -8097,19 +8097,19 @@
         <v>207</v>
       </c>
       <c r="L151" t="n">
-        <v>0.445961143211696</v>
+        <v>4.45961143211696</v>
       </c>
       <c r="M151" t="n">
         <v>0</v>
       </c>
       <c r="N151" t="n">
-        <v>0.0366248281864678</v>
+        <v>0.366248281864678</v>
       </c>
       <c r="O151" t="n">
-        <v>0.323160248704127</v>
+        <v>3.23160248704127</v>
       </c>
       <c r="P151" t="n">
-        <v>0.0861760663211006</v>
+        <v>0.861760663211006</v>
       </c>
     </row>
     <row r="152">
@@ -8147,19 +8147,19 @@
         <v>1831</v>
       </c>
       <c r="L152" t="n">
-        <v>0.964261752565484</v>
+        <v>9.64261752565484</v>
       </c>
       <c r="M152" t="n">
-        <v>0.031597872831201</v>
+        <v>0.31597872831201</v>
       </c>
       <c r="N152" t="n">
-        <v>0.0747816323671757</v>
+        <v>0.747816323671757</v>
       </c>
       <c r="O152" t="n">
-        <v>0.349683125998624</v>
+        <v>3.49683125998624</v>
       </c>
       <c r="P152" t="n">
-        <v>0.508199121368483</v>
+        <v>5.08199121368483</v>
       </c>
     </row>
     <row r="153">
@@ -8197,19 +8197,19 @@
         <v>2054</v>
       </c>
       <c r="L153" t="n">
-        <v>1.06988806803946</v>
+        <v>10.6988806803946</v>
       </c>
       <c r="M153" t="n">
-        <v>0.021356090939444</v>
+        <v>0.21356090939444</v>
       </c>
       <c r="N153" t="n">
-        <v>0.0630265122847007</v>
+        <v>0.630265122847007</v>
       </c>
       <c r="O153" t="n">
-        <v>0.410453650250778</v>
+        <v>4.10453650250778</v>
       </c>
       <c r="P153" t="n">
-        <v>0.575051814564541</v>
+        <v>5.75051814564542</v>
       </c>
     </row>
     <row r="154">
@@ -8247,19 +8247,19 @@
         <v>2067</v>
       </c>
       <c r="L154" t="n">
-        <v>1.06531675005721</v>
+        <v>10.6531675005721</v>
       </c>
       <c r="M154" t="n">
-        <v>0.00670010534627175</v>
+        <v>0.0670010534627175</v>
       </c>
       <c r="N154" t="n">
-        <v>0.0685472316195495</v>
+        <v>0.685472316195495</v>
       </c>
       <c r="O154" t="n">
-        <v>0.414375746030961</v>
+        <v>4.14375746030961</v>
       </c>
       <c r="P154" t="n">
-        <v>0.575693667060427</v>
+        <v>5.75693667060427</v>
       </c>
     </row>
     <row r="155">
@@ -8297,19 +8297,19 @@
         <v>2021</v>
       </c>
       <c r="L155" t="n">
-        <v>1.03109404128662</v>
+        <v>10.3109404128662</v>
       </c>
       <c r="M155" t="n">
-        <v>0.00459171022839167</v>
+        <v>0.0459171022839167</v>
       </c>
       <c r="N155" t="n">
-        <v>0.0474476723600472</v>
+        <v>0.474476723600472</v>
       </c>
       <c r="O155" t="n">
-        <v>0.45049779240776</v>
+        <v>4.5049779240776</v>
       </c>
       <c r="P155" t="n">
-        <v>0.528556866290419</v>
+        <v>5.28556866290419</v>
       </c>
     </row>
     <row r="156">
@@ -8347,19 +8347,19 @@
         <v>3025</v>
       </c>
       <c r="L156" t="n">
-        <v>1.52821694719341</v>
+        <v>15.2821694719341</v>
       </c>
       <c r="M156" t="n">
-        <v>0.00707273959031661</v>
+        <v>0.0707273959031661</v>
       </c>
       <c r="N156" t="n">
-        <v>0.061633873572759</v>
+        <v>0.61633873572759</v>
       </c>
       <c r="O156" t="n">
-        <v>0.552178883729718</v>
+        <v>5.52178883729718</v>
       </c>
       <c r="P156" t="n">
-        <v>0.907331450300617</v>
+        <v>9.07331450300617</v>
       </c>
     </row>
     <row r="157">
@@ -8397,19 +8397,19 @@
         <v>3135</v>
       </c>
       <c r="L157" t="n">
-        <v>1.56857996730749</v>
+        <v>15.6857996730749</v>
       </c>
       <c r="M157" t="n">
-        <v>0.00550378935897365</v>
+        <v>0.0550378935897365</v>
       </c>
       <c r="N157" t="n">
-        <v>0.0470323817948658</v>
+        <v>0.470323817948658</v>
       </c>
       <c r="O157" t="n">
-        <v>0.590906839358899</v>
+        <v>5.90906839358899</v>
       </c>
       <c r="P157" t="n">
-        <v>0.925136956794753</v>
+        <v>9.25136956794753</v>
       </c>
     </row>
     <row r="158">
@@ -8447,19 +8447,19 @@
         <v>2817</v>
       </c>
       <c r="L158" t="n">
-        <v>1.39326809653464</v>
+        <v>13.9326809653464</v>
       </c>
       <c r="M158" t="n">
-        <v>0.00741889295279358</v>
+        <v>0.0741889295279358</v>
       </c>
       <c r="N158" t="n">
-        <v>0.0400620219450854</v>
+        <v>0.400620219450854</v>
       </c>
       <c r="O158" t="n">
-        <v>0.561362900094714</v>
+        <v>5.61362900094715</v>
       </c>
       <c r="P158" t="n">
-        <v>0.784424281542042</v>
+        <v>7.84424281542042</v>
       </c>
     </row>
     <row r="159">
@@ -8497,19 +8497,19 @@
         <v>2576</v>
       </c>
       <c r="L159" t="n">
-        <v>1.25971868564786</v>
+        <v>12.5971868564786</v>
       </c>
       <c r="M159" t="n">
-        <v>0.00537923351790625</v>
+        <v>0.0537923351790625</v>
       </c>
       <c r="N159" t="n">
-        <v>0.0288522525051335</v>
+        <v>0.288522525051335</v>
       </c>
       <c r="O159" t="n">
-        <v>0.484131016611562</v>
+        <v>4.84131016611562</v>
       </c>
       <c r="P159" t="n">
-        <v>0.741356183013261</v>
+        <v>7.41356183013261</v>
       </c>
     </row>
     <row r="160">
@@ -8547,19 +8547,19 @@
         <v>2595</v>
       </c>
       <c r="L160" t="n">
-        <v>1.25507228152311</v>
+        <v>12.5507228152311</v>
       </c>
       <c r="M160" t="n">
-        <v>0.00483650204825862</v>
+        <v>0.0483650204825862</v>
       </c>
       <c r="N160" t="n">
-        <v>0.0430448682295017</v>
+        <v>0.430448682295017</v>
       </c>
       <c r="O160" t="n">
-        <v>0.450761990897703</v>
+        <v>4.50761990897703</v>
       </c>
       <c r="P160" t="n">
-        <v>0.756428920347648</v>
+        <v>7.56428920347648</v>
       </c>
     </row>
     <row r="161">
@@ -8597,19 +8597,19 @@
         <v>2396</v>
       </c>
       <c r="L161" t="n">
-        <v>1.1467911863641</v>
+        <v>11.467911863641</v>
       </c>
       <c r="M161" t="n">
-        <v>0.00813666534565512</v>
+        <v>0.0813666534565512</v>
       </c>
       <c r="N161" t="n">
-        <v>0.0559994026730381</v>
+        <v>0.559994026730382</v>
       </c>
       <c r="O161" t="n">
-        <v>0.471447962674723</v>
+        <v>4.71447962674723</v>
       </c>
       <c r="P161" t="n">
-        <v>0.611207155670681</v>
+        <v>6.11207155670681</v>
       </c>
     </row>
     <row r="162">
@@ -8647,19 +8647,19 @@
         <v>1559</v>
       </c>
       <c r="L162" t="n">
-        <v>0.905660289671871</v>
+        <v>9.05660289671871</v>
       </c>
       <c r="M162" t="n">
-        <v>0.0127803248061457</v>
+        <v>0.127803248061457</v>
       </c>
       <c r="N162" t="n">
-        <v>0.0702917864338014</v>
+        <v>0.702917864338014</v>
       </c>
       <c r="O162" t="n">
-        <v>0.65644395595203</v>
+        <v>6.5644395595203</v>
       </c>
       <c r="P162" t="n">
-        <v>0.166144222479894</v>
+        <v>1.66144222479894</v>
       </c>
     </row>
     <row r="163">
@@ -8697,19 +8697,19 @@
         <v>1279</v>
       </c>
       <c r="L163" t="n">
-        <v>0.73644571375927</v>
+        <v>7.3644571375927</v>
       </c>
       <c r="M163" t="n">
-        <v>0.00978856695379796</v>
+        <v>0.0978856695379796</v>
       </c>
       <c r="N163" t="n">
-        <v>0.0403058639274034</v>
+        <v>0.403058639274034</v>
       </c>
       <c r="O163" t="n">
-        <v>0.553917729973744</v>
+        <v>5.53917729973744</v>
       </c>
       <c r="P163" t="n">
-        <v>0.132433552904325</v>
+        <v>1.32433552904325</v>
       </c>
     </row>
     <row r="164">
@@ -8747,19 +8747,19 @@
         <v>1227</v>
       </c>
       <c r="L164" t="n">
-        <v>0.700579591151571</v>
+        <v>7.00579591151571</v>
       </c>
       <c r="M164" t="n">
-        <v>0.0119903597507604</v>
+        <v>0.119903597507604</v>
       </c>
       <c r="N164" t="n">
-        <v>0.0428227133955728</v>
+        <v>0.428227133955728</v>
       </c>
       <c r="O164" t="n">
-        <v>0.555553335118565</v>
+        <v>5.55553335118565</v>
       </c>
       <c r="P164" t="n">
-        <v>0.0902131828866734</v>
+        <v>0.902131828866734</v>
       </c>
     </row>
     <row r="165">
@@ -8797,19 +8797,19 @@
         <v>1343</v>
       </c>
       <c r="L165" t="n">
-        <v>0.760604859262615</v>
+        <v>7.60604859262615</v>
       </c>
       <c r="M165" t="n">
-        <v>0.00849521436257575</v>
+        <v>0.0849521436257575</v>
       </c>
       <c r="N165" t="n">
-        <v>0.0356799003228181</v>
+        <v>0.356799003228181</v>
       </c>
       <c r="O165" t="n">
-        <v>0.611655434105454</v>
+        <v>6.11655434105454</v>
       </c>
       <c r="P165" t="n">
-        <v>0.104774310471768</v>
+        <v>1.04774310471768</v>
       </c>
     </row>
     <row r="166">
@@ -8847,19 +8847,19 @@
         <v>1274</v>
       </c>
       <c r="L166" t="n">
-        <v>0.715871098249656</v>
+        <v>7.15871098249656</v>
       </c>
       <c r="M166" t="n">
-        <v>0.00449526592307476</v>
+        <v>0.0449526592307476</v>
       </c>
       <c r="N166" t="n">
-        <v>0.0410193015480572</v>
+        <v>0.410193015480572</v>
       </c>
       <c r="O166" t="n">
-        <v>0.58326075351895</v>
+        <v>5.8326075351895</v>
       </c>
       <c r="P166" t="n">
-        <v>0.0870957772595735</v>
+        <v>0.870957772595735</v>
       </c>
     </row>
     <row r="167">
@@ -8897,19 +8897,19 @@
         <v>1246</v>
       </c>
       <c r="L167" t="n">
-        <v>0.694784045394045</v>
+        <v>6.94784045394045</v>
       </c>
       <c r="M167" t="n">
-        <v>0.0105946202748691</v>
+        <v>0.105946202748691</v>
       </c>
       <c r="N167" t="n">
-        <v>0.0373599767587488</v>
+        <v>0.373599767587488</v>
       </c>
       <c r="O167" t="n">
-        <v>0.572667106436343</v>
+        <v>5.72667106436343</v>
       </c>
       <c r="P167" t="n">
-        <v>0.0741623419240834</v>
+        <v>0.741623419240834</v>
       </c>
     </row>
     <row r="168">
@@ -8947,19 +8947,19 @@
         <v>1459</v>
       </c>
       <c r="L168" t="n">
-        <v>0.806433337147172</v>
+        <v>8.06433337147172</v>
       </c>
       <c r="M168" t="n">
-        <v>0.0121600640282644</v>
+        <v>0.121600640282644</v>
       </c>
       <c r="N168" t="n">
-        <v>0.0348220015354844</v>
+        <v>0.348220015354844</v>
       </c>
       <c r="O168" t="n">
-        <v>0.692018189244865</v>
+        <v>6.92018189244865</v>
       </c>
       <c r="P168" t="n">
-        <v>0.0674330823385572</v>
+        <v>0.674330823385572</v>
       </c>
     </row>
     <row r="169">
@@ -8997,19 +8997,19 @@
         <v>1535</v>
       </c>
       <c r="L169" t="n">
-        <v>0.841217117864109</v>
+        <v>8.41217117864109</v>
       </c>
       <c r="M169" t="n">
-        <v>0.00822036271528445</v>
+        <v>0.0822036271528445</v>
       </c>
       <c r="N169" t="n">
-        <v>0.0356215717662326</v>
+        <v>0.356215717662326</v>
       </c>
       <c r="O169" t="n">
-        <v>0.718459701315861</v>
+        <v>7.18459701315861</v>
       </c>
       <c r="P169" t="n">
-        <v>0.0789154820667307</v>
+        <v>0.789154820667307</v>
       </c>
     </row>
     <row r="170">
@@ -9047,19 +9047,19 @@
         <v>1736</v>
       </c>
       <c r="L170" t="n">
-        <v>0.943683409436834</v>
+        <v>9.43683409436834</v>
       </c>
       <c r="M170" t="n">
-        <v>0.0119591215481626</v>
+        <v>0.119591215481626</v>
       </c>
       <c r="N170" t="n">
-        <v>0.048380082626658</v>
+        <v>0.48380082626658</v>
       </c>
       <c r="O170" t="n">
-        <v>0.808871493803001</v>
+        <v>8.08871493803001</v>
       </c>
       <c r="P170" t="n">
-        <v>0.0744727114590128</v>
+        <v>0.744727114590128</v>
       </c>
     </row>
     <row r="171">
@@ -9097,19 +9097,19 @@
         <v>1985</v>
       </c>
       <c r="L171" t="n">
-        <v>1.07060260094407</v>
+        <v>10.7060260094407</v>
       </c>
       <c r="M171" t="n">
-        <v>0.0134836599615122</v>
+        <v>0.134836599615122</v>
       </c>
       <c r="N171" t="n">
-        <v>0.0631035286198773</v>
+        <v>0.631035286198773</v>
       </c>
       <c r="O171" t="n">
-        <v>0.895315021444413</v>
+        <v>8.95315021444413</v>
       </c>
       <c r="P171" t="n">
-        <v>0.0987003909182696</v>
+        <v>0.987003909182696</v>
       </c>
     </row>
     <row r="172">
@@ -9147,19 +9147,19 @@
         <v>95</v>
       </c>
       <c r="L172" t="n">
-        <v>0.401499494955898</v>
+        <v>4.01499494955898</v>
       </c>
       <c r="M172" t="n">
-        <v>0.00845262094643997</v>
+        <v>0.0845262094643997</v>
       </c>
       <c r="N172" t="n">
-        <v>0.0887525199376197</v>
+        <v>0.887525199376197</v>
       </c>
       <c r="O172" t="n">
-        <v>0.219768144607439</v>
+        <v>2.19768144607439</v>
       </c>
       <c r="P172" t="n">
-        <v>0.0845262094643997</v>
+        <v>0.845262094643997</v>
       </c>
     </row>
     <row r="173">
@@ -9197,19 +9197,19 @@
         <v>100</v>
       </c>
       <c r="L173" t="n">
-        <v>0.415997603853802</v>
+        <v>4.15997603853802</v>
       </c>
       <c r="M173" t="n">
         <v>0</v>
       </c>
       <c r="N173" t="n">
-        <v>0.0707195926551463</v>
+        <v>0.707195926551463</v>
       </c>
       <c r="O173" t="n">
-        <v>0.253758538350819</v>
+        <v>2.53758538350819</v>
       </c>
       <c r="P173" t="n">
-        <v>0.0915194728478364</v>
+        <v>0.915194728478364</v>
       </c>
     </row>
     <row r="174">
@@ -9247,19 +9247,19 @@
         <v>83</v>
       </c>
       <c r="L174" t="n">
-        <v>0.340197396465226</v>
+        <v>3.40197396465226</v>
       </c>
       <c r="M174" t="n">
         <v>0</v>
       </c>
       <c r="N174" t="n">
-        <v>0.0655802210053448</v>
+        <v>0.655802210053448</v>
       </c>
       <c r="O174" t="n">
-        <v>0.213135718267371</v>
+        <v>2.13135718267371</v>
       </c>
       <c r="P174" t="n">
-        <v>0.0614814571925107</v>
+        <v>0.614814571925107</v>
       </c>
     </row>
     <row r="175">
@@ -9297,19 +9297,19 @@
         <v>84</v>
       </c>
       <c r="L175" t="n">
-        <v>0.348219726647515</v>
+        <v>3.48219726647515</v>
       </c>
       <c r="M175" t="n">
-        <v>0.00414547293627994</v>
+        <v>0.0414547293627994</v>
       </c>
       <c r="N175" t="n">
-        <v>0.0373092564265194</v>
+        <v>0.373092564265194</v>
       </c>
       <c r="O175" t="n">
-        <v>0.228001011495396</v>
+        <v>2.28001011495396</v>
       </c>
       <c r="P175" t="n">
-        <v>0.0787639857893188</v>
+        <v>0.787639857893188</v>
       </c>
     </row>
     <row r="176">
@@ -9347,19 +9347,19 @@
         <v>88</v>
       </c>
       <c r="L176" t="n">
-        <v>0.359763700660248</v>
+        <v>3.59763700660248</v>
       </c>
       <c r="M176" t="n">
         <v>0</v>
       </c>
       <c r="N176" t="n">
-        <v>0.0694998058093661</v>
+        <v>0.694998058093661</v>
       </c>
       <c r="O176" t="n">
-        <v>0.237116984526073</v>
+        <v>2.37116984526073</v>
       </c>
       <c r="P176" t="n">
-        <v>0.0531469103248094</v>
+        <v>0.531469103248094</v>
       </c>
     </row>
     <row r="177">
@@ -9397,19 +9397,19 @@
         <v>136</v>
       </c>
       <c r="L177" t="n">
-        <v>0.548336243009721</v>
+        <v>5.48336243009721</v>
       </c>
       <c r="M177" t="n">
         <v>0</v>
       </c>
       <c r="N177" t="n">
-        <v>0.104828987634211</v>
+        <v>1.04828987634211</v>
       </c>
       <c r="O177" t="n">
-        <v>0.383028993278849</v>
+        <v>3.83028993278849</v>
       </c>
       <c r="P177" t="n">
-        <v>0.0604782620966604</v>
+        <v>0.604782620966604</v>
       </c>
     </row>
     <row r="178">
@@ -9447,19 +9447,19 @@
         <v>94</v>
       </c>
       <c r="L178" t="n">
-        <v>0.373845156517831</v>
+        <v>3.73845156517831</v>
       </c>
       <c r="M178" t="n">
-        <v>0.00795415226633684</v>
+        <v>0.0795415226633683</v>
       </c>
       <c r="N178" t="n">
-        <v>0.0318166090653473</v>
+        <v>0.318166090653473</v>
       </c>
       <c r="O178" t="n">
-        <v>0.266464100922284</v>
+        <v>2.66464100922284</v>
       </c>
       <c r="P178" t="n">
-        <v>0.0676102942638631</v>
+        <v>0.676102942638631</v>
       </c>
     </row>
     <row r="179">
@@ -9497,19 +9497,19 @@
         <v>95</v>
       </c>
       <c r="L179" t="n">
-        <v>0.372747818444347</v>
+        <v>3.72747818444347</v>
       </c>
       <c r="M179" t="n">
-        <v>0.0117709837403478</v>
+        <v>0.117709837403478</v>
       </c>
       <c r="N179" t="n">
-        <v>0.0470839349613912</v>
+        <v>0.470839349613912</v>
       </c>
       <c r="O179" t="n">
-        <v>0.231496013560173</v>
+        <v>2.31496013560173</v>
       </c>
       <c r="P179" t="n">
-        <v>0.0823968861824346</v>
+        <v>0.823968861824345</v>
       </c>
     </row>
     <row r="180">
@@ -9547,19 +9547,19 @@
         <v>74</v>
       </c>
       <c r="L180" t="n">
-        <v>0.286561800537497</v>
+        <v>2.86561800537497</v>
       </c>
       <c r="M180" t="n">
-        <v>0.0193622838201011</v>
+        <v>0.193622838201011</v>
       </c>
       <c r="N180" t="n">
-        <v>0.050341937932263</v>
+        <v>0.50341937932263</v>
       </c>
       <c r="O180" t="n">
-        <v>0.197495294965032</v>
+        <v>1.97495294965032</v>
       </c>
       <c r="P180" t="n">
-        <v>0.0193622838201011</v>
+        <v>0.193622838201011</v>
       </c>
     </row>
     <row r="181">
@@ -9597,19 +9597,19 @@
         <v>66</v>
       </c>
       <c r="L181" t="n">
-        <v>0.252380406103017</v>
+        <v>2.52380406103017</v>
       </c>
       <c r="M181" t="n">
         <v>0</v>
       </c>
       <c r="N181" t="n">
-        <v>0.0573591832052312</v>
+        <v>0.573591832052312</v>
       </c>
       <c r="O181" t="n">
-        <v>0.164429658521663</v>
+        <v>1.64429658521663</v>
       </c>
       <c r="P181" t="n">
-        <v>0.0305915643761233</v>
+        <v>0.305915643761233</v>
       </c>
     </row>
     <row r="182">
@@ -9647,19 +9647,19 @@
         <v>3388</v>
       </c>
       <c r="L182" t="n">
-        <v>0.746642807006718</v>
+        <v>7.46642807006718</v>
       </c>
       <c r="M182" t="n">
-        <v>0.0110189316264274</v>
+        <v>0.110189316264274</v>
       </c>
       <c r="N182" t="n">
-        <v>0.0892533461740617</v>
+        <v>0.892533461740617</v>
       </c>
       <c r="O182" t="n">
-        <v>0.383018063334615</v>
+        <v>3.83018063334615</v>
       </c>
       <c r="P182" t="n">
-        <v>0.263352465871614</v>
+        <v>2.63352465871614</v>
       </c>
     </row>
     <row r="183">
@@ -9697,19 +9697,19 @@
         <v>3602</v>
       </c>
       <c r="L183" t="n">
-        <v>0.78775803887177</v>
+        <v>7.8775803887177</v>
       </c>
       <c r="M183" t="n">
-        <v>0.0332424269596083</v>
+        <v>0.332424269596083</v>
       </c>
       <c r="N183" t="n">
-        <v>0.08682397041424</v>
+        <v>0.8682397041424</v>
       </c>
       <c r="O183" t="n">
-        <v>0.375945604891886</v>
+        <v>3.75945604891886</v>
       </c>
       <c r="P183" t="n">
-        <v>0.291746036606036</v>
+        <v>2.91746036606036</v>
       </c>
     </row>
     <row r="184">
@@ -9747,19 +9747,19 @@
         <v>2659</v>
       </c>
       <c r="L184" t="n">
-        <v>0.577315433298139</v>
+        <v>5.77315433298139</v>
       </c>
       <c r="M184" t="n">
-        <v>0.00651352500900495</v>
+        <v>0.0651352500900495</v>
       </c>
       <c r="N184" t="n">
-        <v>0.0764253601056581</v>
+        <v>0.764253601056581</v>
       </c>
       <c r="O184" t="n">
-        <v>0.297668092911526</v>
+        <v>2.97668092911526</v>
       </c>
       <c r="P184" t="n">
-        <v>0.196708455271949</v>
+        <v>1.96708455271949</v>
       </c>
     </row>
     <row r="185">
@@ -9797,19 +9797,19 @@
         <v>2435</v>
       </c>
       <c r="L185" t="n">
-        <v>0.524950000398833</v>
+        <v>5.24950000398833</v>
       </c>
       <c r="M185" t="n">
-        <v>0.00711431212039486</v>
+        <v>0.0711431212039486</v>
       </c>
       <c r="N185" t="n">
-        <v>0.0914081314862854</v>
+        <v>0.914081314862854</v>
       </c>
       <c r="O185" t="n">
-        <v>0.266247741475383</v>
+        <v>2.66247741475383</v>
       </c>
       <c r="P185" t="n">
-        <v>0.160179815316769</v>
+        <v>1.60179815316769</v>
       </c>
     </row>
     <row r="186">
@@ -9847,19 +9847,19 @@
         <v>2246</v>
       </c>
       <c r="L186" t="n">
-        <v>0.480783227130045</v>
+        <v>4.80783227130045</v>
       </c>
       <c r="M186" t="n">
-        <v>0.00684998364566405</v>
+        <v>0.0684998364566405</v>
       </c>
       <c r="N186" t="n">
-        <v>0.0901200973382676</v>
+        <v>0.901200973382676</v>
       </c>
       <c r="O186" t="n">
-        <v>0.245957225277125</v>
+        <v>2.45957225277125</v>
       </c>
       <c r="P186" t="n">
-        <v>0.137855920868989</v>
+        <v>1.37855920868989</v>
       </c>
     </row>
     <row r="187">
@@ -9897,19 +9897,19 @@
         <v>2725</v>
       </c>
       <c r="L187" t="n">
-        <v>0.579132321640528</v>
+        <v>5.79132321640528</v>
       </c>
       <c r="M187" t="n">
-        <v>0.00892607615005584</v>
+        <v>0.0892607615005584</v>
       </c>
       <c r="N187" t="n">
-        <v>0.0820348903314656</v>
+        <v>0.820348903314656</v>
       </c>
       <c r="O187" t="n">
-        <v>0.322188843892492</v>
+        <v>3.22188843892492</v>
       </c>
       <c r="P187" t="n">
-        <v>0.165982511266515</v>
+        <v>1.65982511266515</v>
       </c>
     </row>
     <row r="188">
@@ -9947,19 +9947,19 @@
         <v>2089</v>
       </c>
       <c r="L188" t="n">
-        <v>0.440428047992953</v>
+        <v>4.40428047992953</v>
       </c>
       <c r="M188" t="n">
-        <v>0.00569246399990892</v>
+        <v>0.0569246399990892</v>
       </c>
       <c r="N188" t="n">
-        <v>0.0430097279993118</v>
+        <v>0.430097279993118</v>
       </c>
       <c r="O188" t="n">
-        <v>0.276611583995574</v>
+        <v>2.76611583995574</v>
       </c>
       <c r="P188" t="n">
-        <v>0.115114271998158</v>
+        <v>1.15114271998158</v>
       </c>
     </row>
     <row r="189">
@@ -9997,19 +9997,19 @@
         <v>2050</v>
       </c>
       <c r="L189" t="n">
-        <v>0.42872544109051</v>
+        <v>4.2872544109051</v>
       </c>
       <c r="M189" t="n">
-        <v>0.00543749339919672</v>
+        <v>0.0543749339919672</v>
       </c>
       <c r="N189" t="n">
-        <v>0.0276057357189987</v>
+        <v>0.276057357189987</v>
       </c>
       <c r="O189" t="n">
-        <v>0.279403506974108</v>
+        <v>2.79403506974108</v>
       </c>
       <c r="P189" t="n">
-        <v>0.116278704998207</v>
+        <v>1.16278704998207</v>
       </c>
     </row>
     <row r="190">
@@ -10047,19 +10047,19 @@
         <v>2525</v>
       </c>
       <c r="L190" t="n">
-        <v>0.523953493680395</v>
+        <v>5.23953493680395</v>
       </c>
       <c r="M190" t="n">
-        <v>0.00435763301674784</v>
+        <v>0.0435763301674784</v>
       </c>
       <c r="N190" t="n">
-        <v>0.0296734057807115</v>
+        <v>0.296734057807115</v>
       </c>
       <c r="O190" t="n">
-        <v>0.301506703492124</v>
+        <v>3.01506703492124</v>
       </c>
       <c r="P190" t="n">
-        <v>0.188415751390811</v>
+        <v>1.88415751390811</v>
       </c>
     </row>
     <row r="191">
@@ -10097,19 +10097,19 @@
         <v>2498</v>
       </c>
       <c r="L191" t="n">
-        <v>0.514630080272404</v>
+        <v>5.14630080272404</v>
       </c>
       <c r="M191" t="n">
-        <v>0.0121549938895404</v>
+        <v>0.121549938895404</v>
       </c>
       <c r="N191" t="n">
-        <v>0.0274002404628622</v>
+        <v>0.274002404628622</v>
       </c>
       <c r="O191" t="n">
-        <v>0.326330683407321</v>
+        <v>3.26330683407321</v>
       </c>
       <c r="P191" t="n">
-        <v>0.14874416251268</v>
+        <v>1.4874416251268</v>
       </c>
     </row>
     <row r="192">
@@ -10147,19 +10147,19 @@
         <v>9960</v>
       </c>
       <c r="L192" t="n">
-        <v>1.248537575152</v>
+        <v>12.48537575152</v>
       </c>
       <c r="M192" t="n">
-        <v>0.0117833867534425</v>
+        <v>0.117833867534425</v>
       </c>
       <c r="N192" t="n">
-        <v>0.0561591198461942</v>
+        <v>0.561591198461942</v>
       </c>
       <c r="O192" t="n">
-        <v>0.502172843981817</v>
+        <v>5.02172843981817</v>
       </c>
       <c r="P192" t="n">
-        <v>0.678422224570543</v>
+        <v>6.78422224570543</v>
       </c>
     </row>
     <row r="193">
@@ -10197,19 +10197,19 @@
         <v>9956</v>
       </c>
       <c r="L193" t="n">
-        <v>1.23448171792837</v>
+        <v>12.3448171792837</v>
       </c>
       <c r="M193" t="n">
-        <v>0.00967151205287391</v>
+        <v>0.0967151205287391</v>
       </c>
       <c r="N193" t="n">
-        <v>0.0553012099433559</v>
+        <v>0.553012099433559</v>
       </c>
       <c r="O193" t="n">
-        <v>0.510730232638303</v>
+        <v>5.10730232638303</v>
       </c>
       <c r="P193" t="n">
-        <v>0.658778763293834</v>
+        <v>6.58778763293834</v>
       </c>
     </row>
     <row r="194">
@@ -10247,19 +10247,19 @@
         <v>9103</v>
       </c>
       <c r="L194" t="n">
-        <v>1.11743666436992</v>
+        <v>11.1743666436993</v>
       </c>
       <c r="M194" t="n">
-        <v>0.00945211723129564</v>
+        <v>0.0945211723129564</v>
       </c>
       <c r="N194" t="n">
-        <v>0.0421048858484988</v>
+        <v>0.421048858484988</v>
       </c>
       <c r="O194" t="n">
-        <v>0.463890272948912</v>
+        <v>4.63890272948912</v>
       </c>
       <c r="P194" t="n">
-        <v>0.601989388341219</v>
+        <v>6.01989388341218</v>
       </c>
     </row>
     <row r="195">
@@ -10297,19 +10297,19 @@
         <v>8788</v>
       </c>
       <c r="L195" t="n">
-        <v>1.06860003667385</v>
+        <v>10.6860003667385</v>
       </c>
       <c r="M195" t="n">
-        <v>0.00960621334743217</v>
+        <v>0.0960621334743217</v>
       </c>
       <c r="N195" t="n">
-        <v>0.0342905337212136</v>
+        <v>0.342905337212136</v>
       </c>
       <c r="O195" t="n">
-        <v>0.469123684739156</v>
+        <v>4.69123684739156</v>
       </c>
       <c r="P195" t="n">
-        <v>0.555579604866046</v>
+        <v>5.55579604866046</v>
       </c>
     </row>
     <row r="196">
@@ -10347,19 +10347,19 @@
         <v>8048</v>
       </c>
       <c r="L196" t="n">
-        <v>0.969603157860623</v>
+        <v>9.69603157860623</v>
       </c>
       <c r="M196" t="n">
-        <v>0.0134934833101876</v>
+        <v>0.134934833101876</v>
       </c>
       <c r="N196" t="n">
-        <v>0.0298784273297011</v>
+        <v>0.298784273297011</v>
       </c>
       <c r="O196" t="n">
-        <v>0.436731044637768</v>
+        <v>4.36731044637768</v>
       </c>
       <c r="P196" t="n">
-        <v>0.489500202582966</v>
+        <v>4.89500202582966</v>
       </c>
     </row>
     <row r="197">
@@ -10397,19 +10397,19 @@
         <v>6881</v>
       </c>
       <c r="L197" t="n">
-        <v>0.821406956353579</v>
+        <v>8.21406956353579</v>
       </c>
       <c r="M197" t="n">
-        <v>0.00990797520379989</v>
+        <v>0.0990797520379989</v>
       </c>
       <c r="N197" t="n">
-        <v>0.025307117388019</v>
+        <v>0.25307117388019</v>
       </c>
       <c r="O197" t="n">
-        <v>0.423655469858865</v>
+        <v>4.23655469858865</v>
       </c>
       <c r="P197" t="n">
-        <v>0.362536393902895</v>
+        <v>3.62536393902895</v>
       </c>
     </row>
     <row r="198">
@@ -10447,19 +10447,19 @@
         <v>6706</v>
       </c>
       <c r="L198" t="n">
-        <v>0.792168283665705</v>
+        <v>7.92168283665705</v>
       </c>
       <c r="M198" t="n">
-        <v>0.0103952891384703</v>
+        <v>0.103952891384703</v>
       </c>
       <c r="N198" t="n">
-        <v>0.0264607359888336</v>
+        <v>0.264607359888336</v>
       </c>
       <c r="O198" t="n">
-        <v>0.416992848395458</v>
+        <v>4.16992848395458</v>
       </c>
       <c r="P198" t="n">
-        <v>0.338319410142943</v>
+        <v>3.38319410142944</v>
       </c>
     </row>
     <row r="199">
@@ -10497,19 +10497,19 @@
         <v>6605</v>
       </c>
       <c r="L199" t="n">
-        <v>0.772162134641929</v>
+        <v>7.72162134641929</v>
       </c>
       <c r="M199" t="n">
-        <v>0.0111060413006788</v>
+        <v>0.111060413006788</v>
       </c>
       <c r="N199" t="n">
-        <v>0.0231473281845726</v>
+        <v>0.231473281845726</v>
       </c>
       <c r="O199" t="n">
-        <v>0.442721877954426</v>
+        <v>4.42721877954426</v>
       </c>
       <c r="P199" t="n">
-        <v>0.295186887202251</v>
+        <v>2.95186887202251</v>
       </c>
     </row>
     <row r="200">
@@ -10547,19 +10547,19 @@
         <v>6203</v>
       </c>
       <c r="L200" t="n">
-        <v>0.717866947996135</v>
+        <v>7.17866947996135</v>
       </c>
       <c r="M200" t="n">
-        <v>0.0121515443397701</v>
+        <v>0.121515443397701</v>
       </c>
       <c r="N200" t="n">
-        <v>0.0208312188681774</v>
+        <v>0.208312188681774</v>
       </c>
       <c r="O200" t="n">
-        <v>0.435141016357483</v>
+        <v>4.35141016357483</v>
       </c>
       <c r="P200" t="n">
-        <v>0.249743168430704</v>
+        <v>2.49743168430704</v>
       </c>
     </row>
     <row r="201">
@@ -10597,19 +10597,19 @@
         <v>6092</v>
       </c>
       <c r="L201" t="n">
-        <v>0.698262950559842</v>
+        <v>6.98262950559842</v>
       </c>
       <c r="M201" t="n">
-        <v>0.0111181067308445</v>
+        <v>0.111181067308445</v>
       </c>
       <c r="N201" t="n">
-        <v>0.0237262690029362</v>
+        <v>0.237262690029362</v>
       </c>
       <c r="O201" t="n">
-        <v>0.43429388044505</v>
+        <v>4.3429388044505</v>
       </c>
       <c r="P201" t="n">
-        <v>0.229124694381012</v>
+        <v>2.29124694381012</v>
       </c>
     </row>
     <row r="202">
@@ -10647,19 +10647,19 @@
         <v>502</v>
       </c>
       <c r="L202" t="n">
-        <v>0.400721938089259</v>
+        <v>4.00721938089259</v>
       </c>
       <c r="M202" t="n">
-        <v>0.010377261344941</v>
+        <v>0.10377261344941</v>
       </c>
       <c r="N202" t="n">
-        <v>0.0526845575973926</v>
+        <v>0.526845575973926</v>
       </c>
       <c r="O202" t="n">
-        <v>0.273800049331904</v>
+        <v>2.73800049331904</v>
       </c>
       <c r="P202" t="n">
-        <v>0.0638600698150213</v>
+        <v>0.638600698150213</v>
       </c>
     </row>
     <row r="203">
@@ -10697,19 +10697,19 @@
         <v>519</v>
       </c>
       <c r="L203" t="n">
-        <v>0.408975716771314</v>
+        <v>4.08975716771314</v>
       </c>
       <c r="M203" t="n">
-        <v>0.00945608593690899</v>
+        <v>0.0945608593690899</v>
       </c>
       <c r="N203" t="n">
-        <v>0.0638285800741357</v>
+        <v>0.638285800741357</v>
       </c>
       <c r="O203" t="n">
-        <v>0.270286456363315</v>
+        <v>2.70286456363315</v>
       </c>
       <c r="P203" t="n">
-        <v>0.0654045943969539</v>
+        <v>0.654045943969539</v>
       </c>
     </row>
     <row r="204">
@@ -10747,19 +10747,19 @@
         <v>453</v>
       </c>
       <c r="L204" t="n">
-        <v>0.352493796342624</v>
+        <v>3.52493796342624</v>
       </c>
       <c r="M204" t="n">
-        <v>0.00778132000756344</v>
+        <v>0.0778132000756344</v>
       </c>
       <c r="N204" t="n">
-        <v>0.0606942960589949</v>
+        <v>0.606942960589949</v>
       </c>
       <c r="O204" t="n">
-        <v>0.226436412220096</v>
+        <v>2.26436412220096</v>
       </c>
       <c r="P204" t="n">
-        <v>0.0575817680559695</v>
+        <v>0.575817680559695</v>
       </c>
     </row>
     <row r="205">
@@ -10797,19 +10797,19 @@
         <v>483</v>
       </c>
       <c r="L205" t="n">
-        <v>0.37122748712809</v>
+        <v>3.7122748712809</v>
       </c>
       <c r="M205" t="n">
-        <v>0.00461152157923094</v>
+        <v>0.0461152157923094</v>
       </c>
       <c r="N205" t="n">
-        <v>0.0422722811429503</v>
+        <v>0.422722811429503</v>
       </c>
       <c r="O205" t="n">
-        <v>0.266699664665523</v>
+        <v>2.66699664665523</v>
       </c>
       <c r="P205" t="n">
-        <v>0.0576440197403867</v>
+        <v>0.576440197403867</v>
       </c>
     </row>
     <row r="206">
@@ -10847,19 +10847,19 @@
         <v>510</v>
       </c>
       <c r="L206" t="n">
-        <v>0.387259614289424</v>
+        <v>3.87259614289424</v>
       </c>
       <c r="M206" t="n">
-        <v>0.00607466061630469</v>
+        <v>0.0607466061630469</v>
       </c>
       <c r="N206" t="n">
-        <v>0.0888419115134561</v>
+        <v>0.888419115134561</v>
       </c>
       <c r="O206" t="n">
-        <v>0.243745757229226</v>
+        <v>2.43745757229226</v>
       </c>
       <c r="P206" t="n">
-        <v>0.0485972849304375</v>
+        <v>0.485972849304375</v>
       </c>
     </row>
     <row r="207">
@@ -10897,19 +10897,19 @@
         <v>526</v>
       </c>
       <c r="L207" t="n">
-        <v>0.394727461699804</v>
+        <v>3.94727461699805</v>
       </c>
       <c r="M207" t="n">
-        <v>0.00600345949353315</v>
+        <v>0.0600345949353315</v>
       </c>
       <c r="N207" t="n">
-        <v>0.0540311354417983</v>
+        <v>0.540311354417983</v>
       </c>
       <c r="O207" t="n">
-        <v>0.267904379898917</v>
+        <v>2.67904379898917</v>
       </c>
       <c r="P207" t="n">
-        <v>0.0667884868655563</v>
+        <v>0.667884868655563</v>
       </c>
     </row>
     <row r="208">
@@ -10947,19 +10947,19 @@
         <v>512</v>
       </c>
       <c r="L208" t="n">
-        <v>0.3794276126963</v>
+        <v>3.794276126963</v>
       </c>
       <c r="M208" t="n">
-        <v>0.00370534778023731</v>
+        <v>0.0370534778023731</v>
       </c>
       <c r="N208" t="n">
-        <v>0.0377945473584205</v>
+        <v>0.377945473584205</v>
       </c>
       <c r="O208" t="n">
-        <v>0.28605284863432</v>
+        <v>2.8605284863432</v>
       </c>
       <c r="P208" t="n">
-        <v>0.0518748689233223</v>
+        <v>0.518748689233223</v>
       </c>
     </row>
     <row r="209">
@@ -10997,19 +10997,19 @@
         <v>516</v>
       </c>
       <c r="L209" t="n">
-        <v>0.377791981584837</v>
+        <v>3.77791981584837</v>
       </c>
       <c r="M209" t="n">
-        <v>0.00951801503992807</v>
+        <v>0.0951801503992807</v>
       </c>
       <c r="N209" t="n">
-        <v>0.0534473152242115</v>
+        <v>0.534473152242115</v>
       </c>
       <c r="O209" t="n">
-        <v>0.258450716084201</v>
+        <v>2.58450716084201</v>
       </c>
       <c r="P209" t="n">
-        <v>0.056375935236497</v>
+        <v>0.56375935236497</v>
       </c>
     </row>
     <row r="210">
@@ -11047,19 +11047,19 @@
         <v>593</v>
       </c>
       <c r="L210" t="n">
-        <v>0.429168086974206</v>
+        <v>4.29168086974206</v>
       </c>
       <c r="M210" t="n">
-        <v>0.00434234152081827</v>
+        <v>0.0434234152081827</v>
       </c>
       <c r="N210" t="n">
-        <v>0.0557267161838345</v>
+        <v>0.557267161838345</v>
       </c>
       <c r="O210" t="n">
-        <v>0.288041987547612</v>
+        <v>2.88041987547612</v>
       </c>
       <c r="P210" t="n">
-        <v>0.0810570417219411</v>
+        <v>0.810570417219411</v>
       </c>
     </row>
     <row r="211">
@@ -11097,19 +11097,19 @@
         <v>568</v>
       </c>
       <c r="L211" t="n">
-        <v>0.406677239320248</v>
+        <v>4.06677239320248</v>
       </c>
       <c r="M211" t="n">
-        <v>0.00429588633084769</v>
+        <v>0.0429588633084769</v>
       </c>
       <c r="N211" t="n">
-        <v>0.0393789580327705</v>
+        <v>0.393789580327705</v>
       </c>
       <c r="O211" t="n">
-        <v>0.280664573615382</v>
+        <v>2.80664573615382</v>
       </c>
       <c r="P211" t="n">
-        <v>0.0823378213412473</v>
+        <v>0.823378213412473</v>
       </c>
     </row>
     <row r="212">
@@ -11147,19 +11147,19 @@
         <v>108</v>
       </c>
       <c r="L212" t="n">
-        <v>0.347652540599701</v>
+        <v>3.47652540599701</v>
       </c>
       <c r="M212" t="n">
         <v>0</v>
       </c>
       <c r="N212" t="n">
-        <v>0.045066070077739</v>
+        <v>0.45066070077739</v>
       </c>
       <c r="O212" t="n">
-        <v>0.260739405449775</v>
+        <v>2.60739405449775</v>
       </c>
       <c r="P212" t="n">
-        <v>0.0418470650721862</v>
+        <v>0.418470650721862</v>
       </c>
     </row>
     <row r="213">
@@ -11197,19 +11197,19 @@
         <v>110</v>
       </c>
       <c r="L213" t="n">
-        <v>0.345747773855811</v>
+        <v>3.45747773855811</v>
       </c>
       <c r="M213" t="n">
-        <v>0.00628632316101474</v>
+        <v>0.0628632316101474</v>
       </c>
       <c r="N213" t="n">
-        <v>0.00942948474152211</v>
+        <v>0.0942948474152211</v>
       </c>
       <c r="O213" t="n">
-        <v>0.289170865406678</v>
+        <v>2.89170865406678</v>
       </c>
       <c r="P213" t="n">
-        <v>0.0408611005465958</v>
+        <v>0.408611005465958</v>
       </c>
     </row>
     <row r="214">
@@ -11247,19 +11247,19 @@
         <v>95</v>
       </c>
       <c r="L214" t="n">
-        <v>0.2917950308842</v>
+        <v>2.917950308842</v>
       </c>
       <c r="M214" t="n">
-        <v>0.00307152664088632</v>
+        <v>0.0307152664088632</v>
       </c>
       <c r="N214" t="n">
-        <v>0.0122861065635453</v>
+        <v>0.122861065635453</v>
       </c>
       <c r="O214" t="n">
-        <v>0.239579077989133</v>
+        <v>2.39579077989133</v>
       </c>
       <c r="P214" t="n">
-        <v>0.0368583196906358</v>
+        <v>0.368583196906358</v>
       </c>
     </row>
     <row r="215">
@@ -11297,19 +11297,19 @@
         <v>74</v>
       </c>
       <c r="L215" t="n">
-        <v>0.222329714967297</v>
+        <v>2.22329714967297</v>
       </c>
       <c r="M215" t="n">
-        <v>0.00901336682299851</v>
+        <v>0.0901336682299851</v>
       </c>
       <c r="N215" t="n">
-        <v>0.00901336682299851</v>
+        <v>0.0901336682299851</v>
       </c>
       <c r="O215" t="n">
-        <v>0.189280703282969</v>
+        <v>1.89280703282969</v>
       </c>
       <c r="P215" t="n">
-        <v>0.0150222780383308</v>
+        <v>0.150222780383308</v>
       </c>
     </row>
     <row r="216">
@@ -11347,19 +11347,19 @@
         <v>103</v>
       </c>
       <c r="L216" t="n">
-        <v>0.302869022379962</v>
+        <v>3.02869022379962</v>
       </c>
       <c r="M216" t="n">
-        <v>0.0147023797271826</v>
+        <v>0.147023797271826</v>
       </c>
       <c r="N216" t="n">
-        <v>0.0294047594543653</v>
+        <v>0.294047594543653</v>
       </c>
       <c r="O216" t="n">
-        <v>0.229357123744049</v>
+        <v>2.29357123744049</v>
       </c>
       <c r="P216" t="n">
-        <v>0.0294047594543653</v>
+        <v>0.294047594543653</v>
       </c>
     </row>
     <row r="217">
@@ -11397,19 +11397,19 @@
         <v>113</v>
       </c>
       <c r="L217" t="n">
-        <v>0.325353065660855</v>
+        <v>3.25353065660855</v>
       </c>
       <c r="M217" t="n">
-        <v>0.00287923066956509</v>
+        <v>0.0287923066956509</v>
       </c>
       <c r="N217" t="n">
-        <v>0.0259130760260858</v>
+        <v>0.259130760260858</v>
       </c>
       <c r="O217" t="n">
-        <v>0.285043836286944</v>
+        <v>2.85043836286944</v>
       </c>
       <c r="P217" t="n">
-        <v>0.0115169226782604</v>
+        <v>0.115169226782604</v>
       </c>
     </row>
     <row r="218">
@@ -11447,19 +11447,19 @@
         <v>131</v>
       </c>
       <c r="L218" t="n">
-        <v>0.369435553236791</v>
+        <v>3.69435553236791</v>
       </c>
       <c r="M218" t="n">
-        <v>0.014100593634992</v>
+        <v>0.14100593634992</v>
       </c>
       <c r="N218" t="n">
-        <v>0.0394816621779777</v>
+        <v>0.394816621779777</v>
       </c>
       <c r="O218" t="n">
-        <v>0.293292347607834</v>
+        <v>2.93292347607834</v>
       </c>
       <c r="P218" t="n">
-        <v>0.0225609498159873</v>
+        <v>0.225609498159873</v>
       </c>
     </row>
     <row r="219">
@@ -11497,19 +11497,19 @@
         <v>111</v>
       </c>
       <c r="L219" t="n">
-        <v>0.306853617002455</v>
+        <v>3.06853617002455</v>
       </c>
       <c r="M219" t="n">
-        <v>0.0165866820001327</v>
+        <v>0.165866820001327</v>
       </c>
       <c r="N219" t="n">
-        <v>0.024880023000199</v>
+        <v>0.24880023000199</v>
       </c>
       <c r="O219" t="n">
-        <v>0.223920207001791</v>
+        <v>2.23920207001791</v>
       </c>
       <c r="P219" t="n">
-        <v>0.0414667050003317</v>
+        <v>0.414667050003317</v>
       </c>
     </row>
     <row r="220">
@@ -11547,19 +11547,19 @@
         <v>170</v>
       </c>
       <c r="L220" t="n">
-        <v>0.461034452833464</v>
+        <v>4.61034452833464</v>
       </c>
       <c r="M220" t="n">
-        <v>0.013559836848043</v>
+        <v>0.13559836848043</v>
       </c>
       <c r="N220" t="n">
-        <v>0.0325436084353033</v>
+        <v>0.325436084353033</v>
       </c>
       <c r="O220" t="n">
-        <v>0.376963464375597</v>
+        <v>3.76963464375597</v>
       </c>
       <c r="P220" t="n">
-        <v>0.0379675431745205</v>
+        <v>0.379675431745205</v>
       </c>
     </row>
     <row r="221">
@@ -11597,19 +11597,19 @@
         <v>201</v>
       </c>
       <c r="L221" t="n">
-        <v>0.535403203895391</v>
+        <v>5.35403203895391</v>
       </c>
       <c r="M221" t="n">
-        <v>0.0106547901272715</v>
+        <v>0.106547901272715</v>
       </c>
       <c r="N221" t="n">
-        <v>0.039955462977268</v>
+        <v>0.39955462977268</v>
       </c>
       <c r="O221" t="n">
-        <v>0.375581351986319</v>
+        <v>3.75581351986319</v>
       </c>
       <c r="P221" t="n">
-        <v>0.109211598804533</v>
+        <v>1.09211598804533</v>
       </c>
     </row>
     <row r="222">
@@ -11647,19 +11647,19 @@
         <v>1266</v>
       </c>
       <c r="L222" t="n">
-        <v>1.23934661176733</v>
+        <v>12.3934661176733</v>
       </c>
       <c r="M222" t="n">
-        <v>0.0176210418734692</v>
+        <v>0.176210418734692</v>
       </c>
       <c r="N222" t="n">
-        <v>0.0655894336401352</v>
+        <v>0.655894336401352</v>
       </c>
       <c r="O222" t="n">
-        <v>0.882031040444207</v>
+        <v>8.82031040444207</v>
       </c>
       <c r="P222" t="n">
-        <v>0.27410509580952</v>
+        <v>2.7410509580952</v>
       </c>
     </row>
     <row r="223">
@@ -11697,19 +11697,19 @@
         <v>1156</v>
       </c>
       <c r="L223" t="n">
-        <v>1.1246656892323</v>
+        <v>11.246656892323</v>
       </c>
       <c r="M223" t="n">
-        <v>0.0116747303380515</v>
+        <v>0.116747303380515</v>
       </c>
       <c r="N223" t="n">
-        <v>0.0836689007560361</v>
+        <v>0.836689007560361</v>
       </c>
       <c r="O223" t="n">
-        <v>0.816258229468771</v>
+        <v>8.16258229468771</v>
       </c>
       <c r="P223" t="n">
-        <v>0.213063828669441</v>
+        <v>2.13063828669441</v>
       </c>
     </row>
     <row r="224">
@@ -11747,19 +11747,19 @@
         <v>1424</v>
       </c>
       <c r="L224" t="n">
-        <v>1.37730921752587</v>
+        <v>13.7730921752587</v>
       </c>
       <c r="M224" t="n">
-        <v>0.00677048070412999</v>
+        <v>0.0677048070412999</v>
       </c>
       <c r="N224" t="n">
-        <v>0.0909178837411742</v>
+        <v>0.909178837411742</v>
       </c>
       <c r="O224" t="n">
-        <v>0.903375568236773</v>
+        <v>9.03375568236773</v>
       </c>
       <c r="P224" t="n">
-        <v>0.376245284843795</v>
+        <v>3.76245284843795</v>
       </c>
     </row>
     <row r="225">
@@ -11797,19 +11797,19 @@
         <v>1418</v>
       </c>
       <c r="L225" t="n">
-        <v>1.36380248908381</v>
+        <v>13.6380248908381</v>
       </c>
       <c r="M225" t="n">
-        <v>0.00865601015638525</v>
+        <v>0.0865601015638525</v>
       </c>
       <c r="N225" t="n">
-        <v>0.0663627445322869</v>
+        <v>0.663627445322869</v>
       </c>
       <c r="O225" t="n">
-        <v>0.821359185950334</v>
+        <v>8.21359185950334</v>
       </c>
       <c r="P225" t="n">
-        <v>0.467424548444803</v>
+        <v>4.67424548444803</v>
       </c>
     </row>
     <row r="226">
@@ -11847,19 +11847,19 @@
         <v>1509</v>
       </c>
       <c r="L226" t="n">
-        <v>1.44340586392002</v>
+        <v>14.4340586392002</v>
       </c>
       <c r="M226" t="n">
-        <v>0.00286959416286286</v>
+        <v>0.0286959416286286</v>
       </c>
       <c r="N226" t="n">
-        <v>0.0545222890943943</v>
+        <v>0.545222890943943</v>
       </c>
       <c r="O226" t="n">
-        <v>0.885748064937003</v>
+        <v>8.85748064937003</v>
       </c>
       <c r="P226" t="n">
-        <v>0.500265915725759</v>
+        <v>5.00265915725759</v>
       </c>
     </row>
     <row r="227">
@@ -11897,19 +11897,19 @@
         <v>1487</v>
       </c>
       <c r="L227" t="n">
-        <v>1.41482012184389</v>
+        <v>14.1482012184389</v>
       </c>
       <c r="M227" t="n">
-        <v>0.00666021577196182</v>
+        <v>0.0666021577196182</v>
       </c>
       <c r="N227" t="n">
-        <v>0.0761167516795637</v>
+        <v>0.761167516795637</v>
       </c>
       <c r="O227" t="n">
-        <v>0.835381349683212</v>
+        <v>8.35381349683212</v>
       </c>
       <c r="P227" t="n">
-        <v>0.496661804709153</v>
+        <v>4.96661804709153</v>
       </c>
     </row>
     <row r="228">
@@ -11947,19 +11947,19 @@
         <v>1466</v>
       </c>
       <c r="L228" t="n">
-        <v>1.38536745785071</v>
+        <v>13.8536745785071</v>
       </c>
       <c r="M228" t="n">
-        <v>0.00472499132964091</v>
+        <v>0.0472499132964091</v>
       </c>
       <c r="N228" t="n">
-        <v>0.0982798196565309</v>
+        <v>0.982798196565309</v>
       </c>
       <c r="O228" t="n">
-        <v>0.828763479219016</v>
+        <v>8.28763479219016</v>
       </c>
       <c r="P228" t="n">
-        <v>0.453599167645527</v>
+        <v>4.53599167645527</v>
       </c>
     </row>
     <row r="229">
@@ -11997,19 +11997,19 @@
         <v>1216</v>
       </c>
       <c r="L229" t="n">
-        <v>1.14158144704836</v>
+        <v>11.4158144704836</v>
       </c>
       <c r="M229" t="n">
-        <v>0.00563280319267285</v>
+        <v>0.0563280319267285</v>
       </c>
       <c r="N229" t="n">
-        <v>0.0826144468258685</v>
+        <v>0.826144468258685</v>
       </c>
       <c r="O229" t="n">
-        <v>0.731325614515358</v>
+        <v>7.31325614515358</v>
       </c>
       <c r="P229" t="n">
-        <v>0.322008582514465</v>
+        <v>3.22008582514465</v>
       </c>
     </row>
     <row r="230">
@@ -12047,19 +12047,19 @@
         <v>1100</v>
       </c>
       <c r="L230" t="n">
-        <v>1.02631375157796</v>
+        <v>10.2631375157796</v>
       </c>
       <c r="M230" t="n">
-        <v>0.00559807500860704</v>
+        <v>0.0559807500860704</v>
       </c>
       <c r="N230" t="n">
-        <v>0.0951672751463197</v>
+        <v>0.951672751463197</v>
       </c>
       <c r="O230" t="n">
-        <v>0.658706826012762</v>
+        <v>6.58706826012762</v>
       </c>
       <c r="P230" t="n">
-        <v>0.266841575410269</v>
+        <v>2.66841575410269</v>
       </c>
     </row>
     <row r="231">
@@ -12097,19 +12097,19 @@
         <v>1057</v>
       </c>
       <c r="L231" t="n">
-        <v>0.980656845253834</v>
+        <v>9.80656845253834</v>
       </c>
       <c r="M231" t="n">
-        <v>0.001855547483924</v>
+        <v>0.01855547483924</v>
       </c>
       <c r="N231" t="n">
-        <v>0.095560695422086</v>
+        <v>0.95560695422086</v>
       </c>
       <c r="O231" t="n">
-        <v>0.653152714341248</v>
+        <v>6.53152714341248</v>
       </c>
       <c r="P231" t="n">
-        <v>0.230087888006576</v>
+        <v>2.30087888006576</v>
       </c>
     </row>
     <row r="232">
@@ -12147,19 +12147,19 @@
         <v>321</v>
       </c>
       <c r="L232" t="n">
-        <v>0.600039254904526</v>
+        <v>6.00039254904526</v>
       </c>
       <c r="M232" t="n">
-        <v>0.0224313740151225</v>
+        <v>0.224313740151225</v>
       </c>
       <c r="N232" t="n">
-        <v>0.0411241856943912</v>
+        <v>0.411241856943912</v>
       </c>
       <c r="O232" t="n">
-        <v>0.456104604974157</v>
+        <v>4.56104604974157</v>
       </c>
       <c r="P232" t="n">
-        <v>0.0803790902208556</v>
+        <v>0.803790902208556</v>
       </c>
     </row>
     <row r="233">
@@ -12197,19 +12197,19 @@
         <v>323</v>
       </c>
       <c r="L233" t="n">
-        <v>0.592009882716061</v>
+        <v>5.92009882716061</v>
       </c>
       <c r="M233" t="n">
-        <v>0.0293255669456872</v>
+        <v>0.293255669456872</v>
       </c>
       <c r="N233" t="n">
-        <v>0.0604839818254799</v>
+        <v>0.604839818254799</v>
       </c>
       <c r="O233" t="n">
-        <v>0.423387872778359</v>
+        <v>4.23387872778359</v>
       </c>
       <c r="P233" t="n">
-        <v>0.0788124611665344</v>
+        <v>0.788124611665344</v>
       </c>
     </row>
     <row r="234">
@@ -12247,19 +12247,19 @@
         <v>275</v>
       </c>
       <c r="L234" t="n">
-        <v>0.494447800696182</v>
+        <v>4.94447800696183</v>
       </c>
       <c r="M234" t="n">
-        <v>0.0197779120278473</v>
+        <v>0.197779120278473</v>
       </c>
       <c r="N234" t="n">
-        <v>0.0467477920658209</v>
+        <v>0.467477920658209</v>
       </c>
       <c r="O234" t="n">
-        <v>0.357800408503783</v>
+        <v>3.57800408503783</v>
       </c>
       <c r="P234" t="n">
-        <v>0.0701216880987313</v>
+        <v>0.701216880987313</v>
       </c>
     </row>
     <row r="235">
@@ -12297,19 +12297,19 @@
         <v>294</v>
       </c>
       <c r="L235" t="n">
-        <v>0.518825970945746</v>
+        <v>5.18825970945746</v>
       </c>
       <c r="M235" t="n">
-        <v>0.0141177134951223</v>
+        <v>0.141177134951223</v>
       </c>
       <c r="N235" t="n">
-        <v>0.0600002823542699</v>
+        <v>0.600002823542699</v>
       </c>
       <c r="O235" t="n">
-        <v>0.382942978555193</v>
+        <v>3.82942978555193</v>
       </c>
       <c r="P235" t="n">
-        <v>0.0617649965411602</v>
+        <v>0.617649965411602</v>
       </c>
     </row>
     <row r="236">
@@ -12347,19 +12347,19 @@
         <v>258</v>
       </c>
       <c r="L236" t="n">
-        <v>0.447121783496007</v>
+        <v>4.47121783496007</v>
       </c>
       <c r="M236" t="n">
-        <v>0.0155972715173026</v>
+        <v>0.155972715173026</v>
       </c>
       <c r="N236" t="n">
-        <v>0.0225293921916593</v>
+        <v>0.225293921916593</v>
       </c>
       <c r="O236" t="n">
-        <v>0.346606033717835</v>
+        <v>3.46606033717835</v>
       </c>
       <c r="P236" t="n">
-        <v>0.0623890860692103</v>
+        <v>0.623890860692103</v>
       </c>
     </row>
     <row r="237">
@@ -12397,19 +12397,19 @@
         <v>295</v>
       </c>
       <c r="L237" t="n">
-        <v>0.502353397952442</v>
+        <v>5.02353397952442</v>
       </c>
       <c r="M237" t="n">
-        <v>0.0119202501209054</v>
+        <v>0.119202501209054</v>
       </c>
       <c r="N237" t="n">
-        <v>0.0170289287441506</v>
+        <v>0.170289287441506</v>
       </c>
       <c r="O237" t="n">
-        <v>0.386556682492218</v>
+        <v>3.86556682492218</v>
       </c>
       <c r="P237" t="n">
-        <v>0.0868475365951679</v>
+        <v>0.868475365951679</v>
       </c>
     </row>
     <row r="238">
@@ -12447,19 +12447,19 @@
         <v>281</v>
       </c>
       <c r="L238" t="n">
-        <v>0.470724614374355</v>
+        <v>4.70724614374355</v>
       </c>
       <c r="M238" t="n">
-        <v>0.00502552969082941</v>
+        <v>0.0502552969082941</v>
       </c>
       <c r="N238" t="n">
-        <v>0.0117262359452686</v>
+        <v>0.117262359452686</v>
       </c>
       <c r="O238" t="n">
-        <v>0.410418258084402</v>
+        <v>4.10418258084402</v>
       </c>
       <c r="P238" t="n">
-        <v>0.0435545906538549</v>
+        <v>0.435545906538549</v>
       </c>
     </row>
     <row r="239">
@@ -12497,19 +12497,19 @@
         <v>347</v>
       </c>
       <c r="L239" t="n">
-        <v>0.572171051112848</v>
+        <v>5.72171051112848</v>
       </c>
       <c r="M239" t="n">
-        <v>0.0032978158565582</v>
+        <v>0.032978158565582</v>
       </c>
       <c r="N239" t="n">
-        <v>0.0148401713545119</v>
+        <v>0.148401713545119</v>
       </c>
       <c r="O239" t="n">
-        <v>0.497970194340288</v>
+        <v>4.97970194340289</v>
       </c>
       <c r="P239" t="n">
-        <v>0.0560628695614894</v>
+        <v>0.560628695614894</v>
       </c>
     </row>
     <row r="240">
@@ -12547,19 +12547,19 @@
         <v>377</v>
       </c>
       <c r="L240" t="n">
-        <v>0.612277379517779</v>
+        <v>6.12277379517779</v>
       </c>
       <c r="M240" t="n">
-        <v>0.0113685455082877</v>
+        <v>0.113685455082877</v>
       </c>
       <c r="N240" t="n">
-        <v>0.0129926234380431</v>
+        <v>0.129926234380431</v>
       </c>
       <c r="O240" t="n">
-        <v>0.503464158224168</v>
+        <v>5.03464158224168</v>
       </c>
       <c r="P240" t="n">
-        <v>0.0844520523472798</v>
+        <v>0.844520523472798</v>
       </c>
     </row>
     <row r="241">
@@ -12597,19 +12597,19 @@
         <v>368</v>
       </c>
       <c r="L241" t="n">
-        <v>0.589162924361407</v>
+        <v>5.89162924361407</v>
       </c>
       <c r="M241" t="n">
-        <v>0.00800493103751911</v>
+        <v>0.0800493103751911</v>
       </c>
       <c r="N241" t="n">
-        <v>0.00960591724502293</v>
+        <v>0.0960591724502293</v>
       </c>
       <c r="O241" t="n">
-        <v>0.512315586401223</v>
+        <v>5.12315586401223</v>
       </c>
       <c r="P241" t="n">
-        <v>0.0592364896776414</v>
+        <v>0.592364896776414</v>
       </c>
     </row>
     <row r="242">
@@ -12647,19 +12647,19 @@
         <v>734</v>
       </c>
       <c r="L242" t="n">
-        <v>1.95339528843185</v>
+        <v>19.5339528843185</v>
       </c>
       <c r="M242" t="n">
-        <v>0.00532260296575437</v>
+        <v>0.0532260296575437</v>
       </c>
       <c r="N242" t="n">
-        <v>0.202258912698666</v>
+        <v>2.02258912698666</v>
       </c>
       <c r="O242" t="n">
-        <v>1.14169833615431</v>
+        <v>11.4169833615431</v>
       </c>
       <c r="P242" t="n">
-        <v>0.604115436613121</v>
+        <v>6.04115436613121</v>
       </c>
     </row>
     <row r="243">
@@ -12697,19 +12697,19 @@
         <v>802</v>
       </c>
       <c r="L243" t="n">
-        <v>2.09821860717005</v>
+        <v>20.9821860717005</v>
       </c>
       <c r="M243" t="n">
-        <v>0.00523246535453877</v>
+        <v>0.0523246535453877</v>
       </c>
       <c r="N243" t="n">
-        <v>0.219763544890628</v>
+        <v>2.19763544890628</v>
       </c>
       <c r="O243" t="n">
-        <v>1.20085079886665</v>
+        <v>12.0085079886665</v>
       </c>
       <c r="P243" t="n">
-        <v>0.672371798058232</v>
+        <v>6.72371798058232</v>
       </c>
     </row>
     <row r="244">
@@ -12747,19 +12747,19 @@
         <v>667</v>
       </c>
       <c r="L244" t="n">
-        <v>1.71668738530752</v>
+        <v>17.1668738530752</v>
       </c>
       <c r="M244" t="n">
-        <v>0.0128687210292918</v>
+        <v>0.128687210292918</v>
       </c>
       <c r="N244" t="n">
-        <v>0.120965977675343</v>
+        <v>1.20965977675343</v>
       </c>
       <c r="O244" t="n">
-        <v>0.965154077196884</v>
+        <v>9.65154077196884</v>
       </c>
       <c r="P244" t="n">
-        <v>0.617698609406006</v>
+        <v>6.17698609406006</v>
       </c>
     </row>
     <row r="245">
@@ -12797,19 +12797,19 @@
         <v>566</v>
       </c>
       <c r="L245" t="n">
-        <v>1.43401867264597</v>
+        <v>14.3401867264597</v>
       </c>
       <c r="M245" t="n">
         <v>0</v>
       </c>
       <c r="N245" t="n">
-        <v>0.116545687176174</v>
+        <v>1.16545687176174</v>
       </c>
       <c r="O245" t="n">
-        <v>0.912096682248318</v>
+        <v>9.12096682248318</v>
       </c>
       <c r="P245" t="n">
-        <v>0.405376303221475</v>
+        <v>4.05376303221475</v>
       </c>
     </row>
     <row r="246">
@@ -12847,19 +12847,19 @@
         <v>459</v>
       </c>
       <c r="L246" t="n">
-        <v>1.14450140631545</v>
+        <v>11.4450140631545</v>
       </c>
       <c r="M246" t="n">
-        <v>0.00249346711615567</v>
+        <v>0.0249346711615567</v>
       </c>
       <c r="N246" t="n">
-        <v>0.114699487343161</v>
+        <v>1.14699487343161</v>
       </c>
       <c r="O246" t="n">
-        <v>0.733079332149768</v>
+        <v>7.33079332149768</v>
       </c>
       <c r="P246" t="n">
-        <v>0.294229119706369</v>
+        <v>2.94229119706369</v>
       </c>
     </row>
     <row r="247">
@@ -12897,19 +12897,19 @@
         <v>536</v>
       </c>
       <c r="L247" t="n">
-        <v>1.31717014840281</v>
+        <v>13.1717014840281</v>
       </c>
       <c r="M247" t="n">
-        <v>0.0122870349664441</v>
+        <v>0.122870349664441</v>
       </c>
       <c r="N247" t="n">
-        <v>0.127785163651019</v>
+        <v>1.27785163651019</v>
       </c>
       <c r="O247" t="n">
-        <v>0.955931320389352</v>
+        <v>9.55931320389352</v>
       </c>
       <c r="P247" t="n">
-        <v>0.221166629395994</v>
+        <v>2.21166629395994</v>
       </c>
     </row>
     <row r="248">
@@ -12947,19 +12947,19 @@
         <v>322</v>
       </c>
       <c r="L248" t="n">
-        <v>0.780513345081433</v>
+        <v>7.80513345081433</v>
       </c>
       <c r="M248" t="n">
-        <v>0.00484790897566107</v>
+        <v>0.0484790897566107</v>
       </c>
       <c r="N248" t="n">
-        <v>0.067870725659255</v>
+        <v>0.67870725659255</v>
       </c>
       <c r="O248" t="n">
-        <v>0.506606487956582</v>
+        <v>5.06606487956582</v>
       </c>
       <c r="P248" t="n">
-        <v>0.201188222489935</v>
+        <v>2.01188222489935</v>
       </c>
     </row>
     <row r="249">
@@ -12997,19 +12997,19 @@
         <v>268</v>
       </c>
       <c r="L249" t="n">
-        <v>0.641074709124311</v>
+        <v>6.41074709124311</v>
       </c>
       <c r="M249" t="n">
-        <v>0.00717620943049602</v>
+        <v>0.0717620943049602</v>
       </c>
       <c r="N249" t="n">
-        <v>0.0621938150642988</v>
+        <v>0.621938150642988</v>
       </c>
       <c r="O249" t="n">
-        <v>0.437748775260257</v>
+        <v>4.37748775260257</v>
       </c>
       <c r="P249" t="n">
-        <v>0.133955909369259</v>
+        <v>1.33955909369259</v>
       </c>
     </row>
     <row r="250">
@@ -13047,19 +13047,19 @@
         <v>225</v>
       </c>
       <c r="L250" t="n">
-        <v>0.531422417050865</v>
+        <v>5.31422417050865</v>
       </c>
       <c r="M250" t="n">
-        <v>0.00236187740911496</v>
+        <v>0.0236187740911496</v>
       </c>
       <c r="N250" t="n">
-        <v>0.0307044063184944</v>
+        <v>0.307044063184944</v>
       </c>
       <c r="O250" t="n">
-        <v>0.330662837276094</v>
+        <v>3.30662837276094</v>
       </c>
       <c r="P250" t="n">
-        <v>0.167693296047162</v>
+        <v>1.67693296047162</v>
       </c>
     </row>
     <row r="251">
@@ -13097,19 +13097,19 @@
         <v>187</v>
       </c>
       <c r="L251" t="n">
-        <v>0.436379589569828</v>
+        <v>4.36379589569828</v>
       </c>
       <c r="M251" t="n">
-        <v>0.00233358069288678</v>
+        <v>0.0233358069288678</v>
       </c>
       <c r="N251" t="n">
-        <v>0.0280029683146414</v>
+        <v>0.280029683146414</v>
       </c>
       <c r="O251" t="n">
-        <v>0.333702039082809</v>
+        <v>3.33702039082809</v>
       </c>
       <c r="P251" t="n">
-        <v>0.0723410014794902</v>
+        <v>0.723410014794902</v>
       </c>
     </row>
     <row r="252">
@@ -13147,19 +13147,19 @@
         <v>2210</v>
       </c>
       <c r="L252" t="n">
-        <v>2.41249783038939</v>
+        <v>24.1249783038939</v>
       </c>
       <c r="M252" t="n">
-        <v>0.0338404673041046</v>
+        <v>0.338404673041046</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1855767561838</v>
+        <v>1.855767561838</v>
       </c>
       <c r="O252" t="n">
-        <v>1.2400893824988</v>
+        <v>12.400893824988</v>
       </c>
       <c r="P252" t="n">
-        <v>0.952991224402688</v>
+        <v>9.52991224402688</v>
       </c>
     </row>
     <row r="253">
@@ -13197,19 +13197,19 @@
         <v>1625</v>
       </c>
       <c r="L253" t="n">
-        <v>1.73573837242216</v>
+        <v>17.3573837242216</v>
       </c>
       <c r="M253" t="n">
-        <v>0.0202947871237053</v>
+        <v>0.202947871237053</v>
       </c>
       <c r="N253" t="n">
-        <v>0.138859069793773</v>
+        <v>1.38859069793773</v>
       </c>
       <c r="O253" t="n">
-        <v>0.930355767618279</v>
+        <v>9.30355767618279</v>
       </c>
       <c r="P253" t="n">
-        <v>0.646228747886405</v>
+        <v>6.46228747886405</v>
       </c>
     </row>
     <row r="254">
@@ -13247,19 +13247,19 @@
         <v>1082</v>
       </c>
       <c r="L254" t="n">
-        <v>1.13203243764667</v>
+        <v>11.3203243764667</v>
       </c>
       <c r="M254" t="n">
-        <v>0.0188323326041036</v>
+        <v>0.188323326041036</v>
       </c>
       <c r="N254" t="n">
-        <v>0.100439107221886</v>
+        <v>1.00439107221886</v>
       </c>
       <c r="O254" t="n">
-        <v>0.718767361056619</v>
+        <v>7.18767361056619</v>
       </c>
       <c r="P254" t="n">
-        <v>0.293993636764061</v>
+        <v>2.93993636764061</v>
       </c>
     </row>
     <row r="255">
@@ -13297,19 +13297,19 @@
         <v>866</v>
       </c>
       <c r="L255" t="n">
-        <v>0.888161403336041</v>
+        <v>8.88161403336041</v>
       </c>
       <c r="M255" t="n">
-        <v>0.00923031481527063</v>
+        <v>0.0923031481527063</v>
       </c>
       <c r="N255" t="n">
-        <v>0.0697401563820448</v>
+        <v>0.697401563820448</v>
       </c>
       <c r="O255" t="n">
-        <v>0.572279518546779</v>
+        <v>5.72279518546779</v>
       </c>
       <c r="P255" t="n">
-        <v>0.236911413591946</v>
+        <v>2.36911413591946</v>
       </c>
     </row>
     <row r="256">
@@ -13347,19 +13347,19 @@
         <v>662</v>
       </c>
       <c r="L256" t="n">
-        <v>0.665908885155865</v>
+        <v>6.65908885155865</v>
       </c>
       <c r="M256" t="n">
-        <v>0.00704133262249404</v>
+        <v>0.0704133262249404</v>
       </c>
       <c r="N256" t="n">
-        <v>0.0502952330178146</v>
+        <v>0.502952330178146</v>
       </c>
       <c r="O256" t="n">
-        <v>0.467745667065676</v>
+        <v>4.67745667065676</v>
       </c>
       <c r="P256" t="n">
-        <v>0.140826652449881</v>
+        <v>1.40826652449881</v>
       </c>
     </row>
     <row r="257">
@@ -13397,19 +13397,19 @@
         <v>581</v>
       </c>
       <c r="L257" t="n">
-        <v>0.573470334507911</v>
+        <v>5.73470334507911</v>
       </c>
       <c r="M257" t="n">
-        <v>0.00493520081332109</v>
+        <v>0.0493520081332109</v>
       </c>
       <c r="N257" t="n">
-        <v>0.0562612892718605</v>
+        <v>0.562612892718605</v>
       </c>
       <c r="O257" t="n">
-        <v>0.390867904415031</v>
+        <v>3.90867904415031</v>
       </c>
       <c r="P257" t="n">
-        <v>0.121405940007699</v>
+        <v>1.21405940007699</v>
       </c>
     </row>
     <row r="258">
@@ -13447,19 +13447,19 @@
         <v>452</v>
       </c>
       <c r="L258" t="n">
-        <v>0.438378697122994</v>
+        <v>4.38378697122994</v>
       </c>
       <c r="M258" t="n">
-        <v>0.00290959312249775</v>
+        <v>0.0290959312249775</v>
       </c>
       <c r="N258" t="n">
-        <v>0.0436438968374663</v>
+        <v>0.436438968374663</v>
       </c>
       <c r="O258" t="n">
-        <v>0.287079854753111</v>
+        <v>2.87079854753111</v>
       </c>
       <c r="P258" t="n">
-        <v>0.104745352409919</v>
+        <v>1.04745352409919</v>
       </c>
     </row>
     <row r="259">
@@ -13497,19 +13497,19 @@
         <v>413</v>
       </c>
       <c r="L259" t="n">
-        <v>0.393800267936744</v>
+        <v>3.93800267936744</v>
       </c>
       <c r="M259" t="n">
-        <v>0.00381404617856411</v>
+        <v>0.0381404617856411</v>
       </c>
       <c r="N259" t="n">
-        <v>0.0238377886160257</v>
+        <v>0.238377886160257</v>
       </c>
       <c r="O259" t="n">
-        <v>0.287006974936949</v>
+        <v>2.87006974936949</v>
       </c>
       <c r="P259" t="n">
-        <v>0.0791414582052052</v>
+        <v>0.791414582052052</v>
       </c>
     </row>
     <row r="260">
@@ -13547,19 +13547,19 @@
         <v>418</v>
       </c>
       <c r="L260" t="n">
-        <v>0.39208329425007</v>
+        <v>3.9208329425007</v>
       </c>
       <c r="M260" t="n">
-        <v>0.00562798986961823</v>
+        <v>0.0562798986961823</v>
       </c>
       <c r="N260" t="n">
-        <v>0.0196979645436638</v>
+        <v>0.196979645436638</v>
       </c>
       <c r="O260" t="n">
-        <v>0.298283463089766</v>
+        <v>2.98283463089766</v>
       </c>
       <c r="P260" t="n">
-        <v>0.0684738767470219</v>
+        <v>0.684738767470219</v>
       </c>
     </row>
     <row r="261">
@@ -13597,19 +13597,19 @@
         <v>417</v>
       </c>
       <c r="L261" t="n">
-        <v>0.385085642308076</v>
+        <v>3.85085642308076</v>
       </c>
       <c r="M261" t="n">
-        <v>0.00646426737687418</v>
+        <v>0.0646426737687418</v>
       </c>
       <c r="N261" t="n">
-        <v>0.0277040030437465</v>
+        <v>0.277040030437465</v>
       </c>
       <c r="O261" t="n">
-        <v>0.301050166408712</v>
+        <v>3.01050166408712</v>
       </c>
       <c r="P261" t="n">
-        <v>0.0498672054787436</v>
+        <v>0.498672054787436</v>
       </c>
     </row>
     <row r="262">
@@ -13647,19 +13647,19 @@
         <v>2885</v>
       </c>
       <c r="L262" t="n">
-        <v>1.65743634525232</v>
+        <v>16.5743634525232</v>
       </c>
       <c r="M262" t="n">
-        <v>0.0114900266568618</v>
+        <v>0.114900266568618</v>
       </c>
       <c r="N262" t="n">
-        <v>0.0896222079235224</v>
+        <v>0.896222079235224</v>
       </c>
       <c r="O262" t="n">
-        <v>0.883583049912676</v>
+        <v>8.83583049912676</v>
       </c>
       <c r="P262" t="n">
-        <v>0.672741060759261</v>
+        <v>6.72741060759261</v>
       </c>
     </row>
     <row r="263">
@@ -13697,19 +13697,19 @@
         <v>2718</v>
       </c>
       <c r="L263" t="n">
-        <v>1.52269931226428</v>
+        <v>15.2269931226428</v>
       </c>
       <c r="M263" t="n">
-        <v>0.0117647849733444</v>
+        <v>0.117647849733444</v>
       </c>
       <c r="N263" t="n">
-        <v>0.0599443805784689</v>
+        <v>0.599443805784689</v>
       </c>
       <c r="O263" t="n">
-        <v>0.8448236066573</v>
+        <v>8.448236066573</v>
       </c>
       <c r="P263" t="n">
-        <v>0.606166540055171</v>
+        <v>6.06166540055171</v>
       </c>
     </row>
     <row r="264">
@@ -13747,19 +13747,19 @@
         <v>2675</v>
       </c>
       <c r="L264" t="n">
-        <v>1.46295977270801</v>
+        <v>14.6295977270801</v>
       </c>
       <c r="M264" t="n">
-        <v>0.0136725212402617</v>
+        <v>0.136725212402617</v>
       </c>
       <c r="N264" t="n">
-        <v>0.0891448384865066</v>
+        <v>0.891448384865066</v>
       </c>
       <c r="O264" t="n">
-        <v>0.810507059122716</v>
+        <v>8.10507059122716</v>
       </c>
       <c r="P264" t="n">
-        <v>0.549635353858522</v>
+        <v>5.49635353858522</v>
       </c>
     </row>
     <row r="265">
@@ -13797,19 +13797,19 @@
         <v>2585</v>
       </c>
       <c r="L265" t="n">
-        <v>1.38130846514988</v>
+        <v>13.8130846514988</v>
       </c>
       <c r="M265" t="n">
-        <v>0.00854968489067625</v>
+        <v>0.0854968489067625</v>
       </c>
       <c r="N265" t="n">
-        <v>0.0534355305667265</v>
+        <v>0.534355305667266</v>
       </c>
       <c r="O265" t="n">
-        <v>0.739013387737828</v>
+        <v>7.39013387737828</v>
       </c>
       <c r="P265" t="n">
-        <v>0.58030986195465</v>
+        <v>5.8030986195465</v>
       </c>
     </row>
     <row r="266">
@@ -13847,19 +13847,19 @@
         <v>2172</v>
       </c>
       <c r="L266" t="n">
-        <v>1.13465929660527</v>
+        <v>11.3465929660527</v>
       </c>
       <c r="M266" t="n">
-        <v>0.00835844785712905</v>
+        <v>0.0835844785712905</v>
       </c>
       <c r="N266" t="n">
-        <v>0.0370906123660102</v>
+        <v>0.370906123660102</v>
       </c>
       <c r="O266" t="n">
-        <v>0.666586216606042</v>
+        <v>6.66586216606042</v>
       </c>
       <c r="P266" t="n">
-        <v>0.422624019776088</v>
+        <v>4.22624019776088</v>
       </c>
     </row>
     <row r="267">
@@ -13897,19 +13897,19 @@
         <v>1763</v>
       </c>
       <c r="L267" t="n">
-        <v>0.900753608379103</v>
+        <v>9.00753608379103</v>
       </c>
       <c r="M267" t="n">
-        <v>0.0183931536594712</v>
+        <v>0.183931536594712</v>
       </c>
       <c r="N267" t="n">
-        <v>0.0393409119938689</v>
+        <v>0.393409119938689</v>
       </c>
       <c r="O267" t="n">
-        <v>0.55026184697918</v>
+        <v>5.5026184697918</v>
       </c>
       <c r="P267" t="n">
-        <v>0.292757695746583</v>
+        <v>2.92757695746583</v>
       </c>
     </row>
     <row r="268">
@@ -13947,19 +13947,19 @@
         <v>1895</v>
       </c>
       <c r="L268" t="n">
-        <v>0.947404785819025</v>
+        <v>9.47404785819025</v>
       </c>
       <c r="M268" t="n">
-        <v>0.0199979902019847</v>
+        <v>0.199979902019847</v>
       </c>
       <c r="N268" t="n">
-        <v>0.0554944228105075</v>
+        <v>0.554944228105075</v>
       </c>
       <c r="O268" t="n">
-        <v>0.598439856794392</v>
+        <v>5.98439856794392</v>
       </c>
       <c r="P268" t="n">
-        <v>0.273472516012141</v>
+        <v>2.73472516012141</v>
       </c>
     </row>
     <row r="269">
@@ -13997,19 +13997,19 @@
         <v>1762</v>
       </c>
       <c r="L269" t="n">
-        <v>0.862519653895632</v>
+        <v>8.62519653895632</v>
       </c>
       <c r="M269" t="n">
-        <v>0.0318182619200999</v>
+        <v>0.318182619200999</v>
       </c>
       <c r="N269" t="n">
-        <v>0.039650449469663</v>
+        <v>0.39650449469663</v>
       </c>
       <c r="O269" t="n">
-        <v>0.555106292575282</v>
+        <v>5.55106292575282</v>
       </c>
       <c r="P269" t="n">
-        <v>0.235944649930587</v>
+        <v>2.35944649930587</v>
       </c>
     </row>
     <row r="270">
@@ -14047,19 +14047,19 @@
         <v>1956</v>
       </c>
       <c r="L270" t="n">
-        <v>0.937241701505768</v>
+        <v>9.37241701505768</v>
       </c>
       <c r="M270" t="n">
-        <v>0.025874770900466</v>
+        <v>0.25874770900466</v>
       </c>
       <c r="N270" t="n">
-        <v>0.0421662933192779</v>
+        <v>0.421662933192779</v>
       </c>
       <c r="O270" t="n">
-        <v>0.605661304040537</v>
+        <v>6.05661304040537</v>
       </c>
       <c r="P270" t="n">
-        <v>0.263539333245487</v>
+        <v>2.63539333245487</v>
       </c>
     </row>
     <row r="271">
@@ -14097,19 +14097,19 @@
         <v>2158</v>
       </c>
       <c r="L271" t="n">
-        <v>1.01357428658789</v>
+        <v>10.1357428658789</v>
       </c>
       <c r="M271" t="n">
-        <v>0.0291202992439525</v>
+        <v>0.291202992439525</v>
       </c>
       <c r="N271" t="n">
-        <v>0.0375745796696161</v>
+        <v>0.375745796696161</v>
       </c>
       <c r="O271" t="n">
-        <v>0.612935330860613</v>
+        <v>6.12935330860613</v>
       </c>
       <c r="P271" t="n">
-        <v>0.333944076813713</v>
+        <v>3.33944076813713</v>
       </c>
     </row>
   </sheetData>
